--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\flaskDash\dataSources\monthData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1861788-EF1D-4BA1-84DA-AA717EDD8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97560E5-D732-448B-8A4B-F025D75553A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404ABB2-263C-4390-AD24-BE522369CE65}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2455,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF6A449-6462-40EC-A3DA-01359172B0CA}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -3321,47 +3321,47 @@
         <v>34</v>
       </c>
       <c r="B26" s="25">
-        <f>SUM(B3:B25)</f>
+        <f t="shared" ref="B26:L26" si="0">SUM(B3:B25)</f>
         <v>12.25</v>
       </c>
       <c r="C26" s="25">
-        <f>SUM(C3:C25)</f>
+        <f t="shared" si="0"/>
         <v>10.26127462340672</v>
       </c>
       <c r="D26" s="25">
-        <f>SUM(D3:D25)</f>
+        <f t="shared" si="0"/>
         <v>7.7500000000000009</v>
       </c>
       <c r="E26" s="25">
-        <f>SUM(E3:E25)</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="F26" s="25">
-        <f>SUM(F3:F25)</f>
+        <f t="shared" si="0"/>
         <v>8.5760869565217384</v>
       </c>
       <c r="G26" s="25">
-        <f>SUM(G3:G25)</f>
+        <f t="shared" si="0"/>
         <v>12.220828083132018</v>
       </c>
       <c r="H26" s="25">
-        <f>SUM(H3:H25)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="I26" s="25">
-        <f>SUM(I3:I25)</f>
+        <f t="shared" si="0"/>
         <v>12.727272727272727</v>
       </c>
       <c r="J26" s="25">
-        <f>SUM(J3:J25)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="K26" s="25">
-        <f>SUM(K3:K25)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="L26" s="25">
-        <f>SUM(L3:L25)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="M26" s="25"/>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97560E5-D732-448B-8A4B-F025D75553A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398094FF-6E7C-4F42-8291-0D159FEB3E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
-    <sheet name="Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Cost" sheetId="4" r:id="rId2"/>
     <sheet name="Resource" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,63 +79,18 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>FX Central</t>
-  </si>
-  <si>
-    <t>Treena</t>
-  </si>
-  <si>
-    <t>vEMS</t>
-  </si>
-  <si>
     <t>SICAV</t>
   </si>
   <si>
-    <t>Workday</t>
-  </si>
-  <si>
-    <t>Beqom</t>
-  </si>
-  <si>
-    <t>OCP - Tech Refresh</t>
-  </si>
-  <si>
-    <t>Corporate Actions</t>
-  </si>
-  <si>
-    <t>Summit</t>
-  </si>
-  <si>
-    <t>Production Smoke Test</t>
-  </si>
-  <si>
-    <t>OneTracker</t>
-  </si>
-  <si>
     <t>ICS</t>
   </si>
   <si>
-    <t>QA Management</t>
-  </si>
-  <si>
-    <t>Oaktree Client Relations-QA</t>
-  </si>
-  <si>
     <t>PIW</t>
   </si>
   <si>
-    <t>Oaktree Public Websites</t>
-  </si>
-  <si>
     <t>HRIS</t>
   </si>
   <si>
-    <t>Cornerstone</t>
-  </si>
-  <si>
-    <t>Form PF</t>
-  </si>
-  <si>
     <t>QA Department</t>
   </si>
   <si>
@@ -149,6 +104,51 @@
   </si>
   <si>
     <t>Projected Monthly Cost</t>
+  </si>
+  <si>
+    <t>FORM_PF</t>
+  </si>
+  <si>
+    <t>OCP_TECH</t>
+  </si>
+  <si>
+    <t>ONETRACKER</t>
+  </si>
+  <si>
+    <t>TREENA</t>
+  </si>
+  <si>
+    <t>BEEQOM</t>
+  </si>
+  <si>
+    <t>CORPORATE_ACTIONS</t>
+  </si>
+  <si>
+    <t>VEMS</t>
+  </si>
+  <si>
+    <t>WORKDAY</t>
+  </si>
+  <si>
+    <t>FX_CENTRAL</t>
+  </si>
+  <si>
+    <t>QA_SMOKE_TEST</t>
+  </si>
+  <si>
+    <t>PUBLIC_WEBSITE</t>
+  </si>
+  <si>
+    <t>SUMMIT</t>
+  </si>
+  <si>
+    <t>CORNERSTONE</t>
+  </si>
+  <si>
+    <t>QA_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>CLIENT_RELATIONS</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -274,51 +274,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -428,46 +383,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -476,13 +419,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -800,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404ABB2-263C-4390-AD24-BE522369CE65}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +819,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:L2" si="0">SUM(B3:B21)</f>
@@ -914,7 +869,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>28.5</v>
@@ -953,7 +908,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>104.5</v>
@@ -992,7 +947,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>84.5</v>
@@ -1031,7 +986,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>138</v>
@@ -1070,7 +1025,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>183</v>
@@ -1109,7 +1064,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>223.5</v>
@@ -1148,7 +1103,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>95.5</v>
@@ -1187,7 +1142,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1226,7 +1181,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <v>30.5</v>
@@ -1265,7 +1220,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>13.5</v>
@@ -1304,7 +1259,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>144</v>
@@ -1343,7 +1298,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>156</v>
@@ -1382,7 +1337,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -1419,7 +1374,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1454,7 +1409,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1485,7 +1440,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1514,7 +1469,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1543,7 +1498,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1568,7 +1523,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1595,103 +1550,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6077F1-56D3-40A4-8F39-41C3BA3CE0F5}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7">
         <v>38807</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>36191.25</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>37725</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>32729.25</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>33647.25</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>57430.5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>57603</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <v>61940.25</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="7">
         <v>49245.75</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="7">
         <v>56768.25</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <v>53391</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="7">
         <v>855</v>
@@ -1726,725 +1681,741 @@
       <c r="L3" s="7">
         <v>1056</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7">
         <v>3370.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>2103</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>693</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>1749</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>2136</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>1065</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>1290</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>900</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>2292</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>1509</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>603</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7">
         <v>2745</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>3111</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>3780</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>3030</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>3645</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>3765</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>2940</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>3195</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>2040</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>3300</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>4785</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
         <v>4497</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>907.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1740.75</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>899.25</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>360</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>519.75</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>363</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>181.5</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="7">
         <v>645</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>525</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <v>630</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7">
         <v>5995.5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>3997.5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>5743.5</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>4311</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>5925</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>6119.25</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>4476</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>6144</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>4665</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <v>5265</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>5385</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7">
         <v>7327.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>5799</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>4986</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>5027.25</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>4651.5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>4452</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>5241</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>3349.5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>3844.5</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <v>4785</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>3283.5</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7">
         <v>2865</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>4092</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>3426.75</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>3469.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>3318</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>1773.75</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>2227.5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>1105.5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>1515</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>510</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>450</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
         <v>66</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>576</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>570</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>300</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>165</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>115.5</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>99</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>1534.5</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <v>1200.9000000000001</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <v>1812.75</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <v>885</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
         <v>927</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11"/>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7">
         <v>406.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>2988.75</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>2760</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>1153.5</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>1392</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>1567.5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>1833</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>1446</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>1728</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="7">
         <v>1203</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>1416</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="10">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
         <v>4671</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>2689.5</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>1749</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>3287.25</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>1331</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>3951.75</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>10510.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>12721.5</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <v>10197</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="7">
         <v>15799.5</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <v>13344</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
         <v>5081</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>6499.5</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>7156.5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>4693.5</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>5618.25</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>3570</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>7734</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>6027</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="7">
         <v>4276.5</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="7">
         <v>7407</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="7">
         <v>3924.0000000000005</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
         <v>2371.5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>2100</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>1575</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>2102.5</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>4080</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>7132.5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>6532.5</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <v>6855</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <v>5790</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="7">
         <v>7410</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
         <v>1452</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>2178</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>1630.5</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>1785</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>1977</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>525</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="7">
         <v>870</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="7">
         <v>360</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="7">
         <v>1365</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>52.5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>9735</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>2937</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>1947</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <v>660</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <v>330</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <v>1287</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <v>12423</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>5245.5</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>9108</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <v>2457</v>
       </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11"/>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <v>1452</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>2541</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <v>1127.25</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="7">
         <v>2461.35</v>
       </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
         <v>2260.5</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
         <v>4776</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="7">
         <v>916.5</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
         <v>1566</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="7">
         <v>7116</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="7">
         <v>5307</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7">
         <v>38807</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="7">
         <v>36191.25</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="7">
         <v>37725</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="7">
         <v>32729.25</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="7">
         <v>33647.25</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="7">
         <v>57430.5</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="7">
         <v>57603</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="7">
         <v>61940.25</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="7">
         <v>49245.75</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="7">
         <v>56768.25</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L24" s="7">
         <v>53391</v>
       </c>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7">
         <v>62160</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="7">
         <v>51659.530011587485</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="7">
         <v>44160</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="7">
         <v>47640</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="7">
         <v>49175.999999999985</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="7">
         <v>68206.569506830754</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="7">
         <v>66654.000000000015</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="7">
         <v>71148</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J25" s="7">
         <v>66653.999999999985</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="7">
         <v>63480</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L25" s="7">
         <v>61110</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,7 +2427,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2512,859 +2483,859 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="25">
+        <v>17</v>
+      </c>
+      <c r="B2" s="21">
         <v>7.3420692231075702</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>7.2346349942062576</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="21">
         <v>6.6402516292541645</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="21">
         <v>8.4891868512110733</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <v>7.4000917806972293</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="21">
         <v>11.56304347826087</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="21">
         <v>11.041969476744185</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="21">
         <v>11.605632607150058</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="21">
         <v>10.643682065217391</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="21">
         <v>11.855840380549683</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="21">
         <v>11.006726709822685</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.17386703187250996</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.19949015063731171</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.26656408399710357</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.26297577854671284</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.23938833095664308</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.20406308633908607</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.19379844961240311</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.23769856850281737</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.21141649048625794</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.20714888826343933</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.63751245019920322</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.43326767091541135</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.11784938450398262</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.43555363321799312</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.42491428744804144</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.22638248640742362</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.17827392637711301</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.50271739130434778</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.32042811839323465</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.12623135378553335</v>
+      </c>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.51550049800796804</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.63899188876013902</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.67903692976104268</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.81358131487889263</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.72714205528080333</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.80030991673610319</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.59350775193798455</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.6328724386387512</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.46195652173913043</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.72674418604651159</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1.0325077399380804</v>
+      </c>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16">
-        <v>0.17386703187250996</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.19949015063731171</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.26656408399710357</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.26297577854671284</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.23938833095664308</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.20406308633908607</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0.19379844961240311</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.23769856850281737</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0.21141649048625794</v>
-      </c>
-      <c r="L3" s="17">
-        <v>0.20714888826343933</v>
-      </c>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0.63751245019920322</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.43326767091541135</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.11784938450398262</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.43555363321799312</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.42491428744804144</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.22638248640742362</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.26041666666666663</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.17827392637711301</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0.50271739130434778</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.32042811839323465</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0.12623135378553335</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.51550049800796804</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.63899188876013902</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.67903692976104268</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.81358131487889263</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.72714205528080333</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.80030991673610319</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.59350775193798455</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.6328724386387512</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0.46195652173913043</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.72674418604651159</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1.0325077399380804</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>0.84188247011952189</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>0.17143684820393973</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>0.2960264301230992</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>0.22394031141868512</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>7.1816499286992921E-2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>0.10043730030751893</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <v>6.6618217054263559E-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>3.2683553169137389E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <v>0.14605978260869565</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <v>0.11561839323467231</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="15">
         <v>0.13594145792288209</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12">
         <v>1.1164093625498008</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>0.8244553881807648</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>1.0269732078204199</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>1.1340830449826989</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>1.181979884098425</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>1.264234589585119</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="12">
         <v>0.88723352713178294</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="12">
         <v>1.2033490030455127</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>1.0563858695652173</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>1.1594873150105707</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="15">
         <v>1.1619757951027301</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12">
         <v>1.3634835657370519</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>1.2031749710312862</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>0.88387038377986971</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>1.3087153979238753</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>0.86927887678631022</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>0.88161630269933278</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="12">
         <v>0.96899224806201545</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="12">
         <v>0.61058819784161211</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="15">
         <v>0.79144021739130432</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <v>0.95798097251585612</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="17">
         <v>0.6441035744441318</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12">
         <v>0.58260707171314741</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>0.7730243337195829</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>0.6046795800144823</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>0.90808823529411753</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>0.62839436876118815</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>0.34276221533518364</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="12">
         <v>0.40879360465116282</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="12">
         <v>0.19907255112110953</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="15">
         <v>0.34307065217391308</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <v>0.11231501057082452</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <v>9.7101041373487199E-2</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12">
         <v>1.2201195219123506E-2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <v>0.11221320973348783</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>0.10662563359884142</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>8.2179930795847761E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <v>2.9923541369580385E-2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>2.231940006833754E-2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="12">
         <v>1.8168604651162792E-2</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="12">
         <v>0.27632458588452519</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <v>0.24999999999999997</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <v>0.38154069767441856</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <v>0.19096538136785818</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12">
         <v>0.18606822709163348</v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16"/>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12">
         <v>8.2358067729083662E-2</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>0.58132676709154107</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>0.48683019551049966</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>0.29995674740484429</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <v>0.25734245577839132</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>0.31566008668077378</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="12">
         <v>0.35125968992248063</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="12">
         <v>0.27335335377823994</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="15">
         <v>0.37703804347826086</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="15">
         <v>0.25105708245243125</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="15">
         <v>0.2945398254995778</v>
       </c>
-      <c r="M12" s="20"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="16">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12">
         <v>0.87848605577689254</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>0.5080764774044032</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>0.29742939898624188</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <v>0.85261678200692037</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <v>0.81092797111562842</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>0.76364233090954869</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="12">
         <v>1.9289001937984496</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="12">
         <v>2.2908199539459022</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="15">
         <v>2.1127717391304346</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="15">
         <v>3.1712473572938689</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="15">
         <v>2.6249648184632703</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
         <v>0.95169322709163351</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>1.3185052143684821</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>1.2346125995655322</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>1.1936634948096885</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <v>1.0488201250037925</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>0.74610565942728346</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="12">
         <v>1.5503875968992249</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="12">
         <v>1.1825503783015163</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="15">
         <v>0.95108695652173925</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <v>1.5542415433403807</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <v>0.84672108077680852</v>
       </c>
-      <c r="M14" s="20"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
         <v>0.47067207415990731</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>0.39283128167994208</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="12">
         <v>0.43144463667820071</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>0.76305030492429982</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>0.86726811694111583</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="12">
         <v>1.4398619186046511</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="12">
         <v>1.293971582287212</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="15">
         <v>1.5523097826086958</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="15">
         <v>1.2751057082452433</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="15">
         <v>1.5989304812834224</v>
       </c>
-      <c r="M15" s="20"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
         <v>0.24692251991310643</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="12">
         <v>0.54238754325259519</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>0.32018189265451008</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>0.37942980116173813</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="12">
         <v>0.39365310077519378</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="12">
         <v>0.10399312371998259</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="15">
         <v>0.19701086956521738</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="15">
         <v>7.9281183932346719E-2</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="15">
         <v>0.2945398254995778</v>
       </c>
-      <c r="M16" s="20"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>2.6931187232622347E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>1.8812065771884496</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="12">
         <v>0.53900193798449614</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="12">
         <v>0.35060538854165563</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="15">
         <v>0.1358695652173913</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <v>6.6067653276955601E-2</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="15">
         <v>0.2524627075710667</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>2.4870188647576117</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="12">
         <v>0.97504844961240311</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="12">
         <v>1.6638899795197215</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="15">
         <v>0.50611413043478259</v>
       </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="M18" s="20"/>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>0.28058674371624337</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="12">
         <v>0.4663275193798449</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="12">
         <v>0.20798624743996519</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="15">
         <v>0.51256793478260876</v>
       </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>0.44342808893892482</v>
       </c>
-      <c r="M19" s="20"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
         <v>0.8675997750352834</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="15">
         <v>0.20380434782608695</v>
       </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>0</v>
-      </c>
-      <c r="M20" s="20"/>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="19">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="15">
         <v>0.32608695652173914</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="15">
         <v>1.4733086680761101</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="15">
         <v>1.055164649591894</v>
       </c>
-      <c r="M21" s="20"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10">
         <v>4.9079307768924298</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>3.0266396292004631</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>1.1097483707458364</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>1.0108131487889274</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>1.1759951758245091</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="10">
         <v>0.65778460487114787</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="10">
         <v>1.4580305232558139</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <v>1.1216401201226693</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="10">
         <v>1.8563179347826086</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="10">
         <v>0.64415961945031719</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="10">
         <v>0.49327329017731486</v>
       </c>
-      <c r="M25" s="14"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="25">
+      <c r="A26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="21">
         <f t="shared" ref="B26:L26" si="0">SUM(B3:B25)</f>
         <v>12.25</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <f t="shared" si="0"/>
         <v>10.26127462340672</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="21">
         <f t="shared" si="0"/>
         <v>7.7500000000000009</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <f t="shared" si="0"/>
         <v>8.5760869565217384</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
         <v>12.220828083132018</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="21">
         <f t="shared" si="0"/>
         <v>12.727272727272727</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="21">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="21">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="21">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6934D6-2B75-4AD2-894F-10328FA20C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A7EA82-2C8C-49D8-8FD2-EA6C2FD2F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Project</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Jul 24</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Business Operation</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -751,7 +769,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,133 +3257,686 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" ref="B27:T27" si="0">B12+B15</f>
+        <v>406.5</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>5360.25</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>4860</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>2728.5</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>3494.5</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>5647.5</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>8965.5</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>7978.5</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>8583</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="0"/>
+        <v>6993</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="0"/>
+        <v>8826</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="0"/>
+        <v>9825</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>406.5</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="0"/>
+        <v>5360.25</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="0"/>
+        <v>4860</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="0"/>
+        <v>2728.5</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="0"/>
+        <v>3494.5</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="0"/>
+        <v>5647.5</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="0"/>
+        <v>8965.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:T28" si="1">C16</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>2178</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>1630.5</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>1785</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>1977</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="1"/>
+        <v>1365</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="1"/>
+        <v>2178</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="1"/>
+        <v>1630.5</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="1"/>
+        <v>1785</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="1"/>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:T29" si="2">C20</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>4776</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>916.5</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" ref="B30:T30" si="3">B8+B19+B14+B5+B7+B10</f>
+        <v>21215</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="3"/>
+        <v>19983</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="3"/>
+        <v>22236</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="3"/>
+        <v>17361.75</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>20004.75</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="3"/>
+        <v>19473.75</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="3"/>
+        <v>23031</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>21377.25</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
+        <v>18488.25</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="3"/>
+        <v>22569.75</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="3"/>
+        <v>20523</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="3"/>
+        <v>18222</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="3"/>
+        <v>21215</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="3"/>
+        <v>19983</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="3"/>
+        <v>22236</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="3"/>
+        <v>17361.75</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="3"/>
+        <v>20004.75</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="3"/>
+        <v>19473.75</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="3"/>
+        <v>23031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" ref="B31:T31" si="4">B3+B22+B11</f>
+        <v>1782</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>1567.5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="4"/>
+        <v>1698</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="4"/>
+        <v>1782</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="4"/>
+        <v>1567.5</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <f>B9+B13+B6+B4+B21+B17+B18</f>
+        <v>15403.5</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:T32" si="5">C9+C13+C6+C4+C21+C17+C18</f>
+        <v>9792</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="5"/>
+        <v>7609.5</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="5"/>
+        <v>9405</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="5"/>
+        <v>7197.5</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="5"/>
+        <v>29468.25</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="5"/>
+        <v>22573.5</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="5"/>
+        <v>25963.5</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="5"/>
+        <v>19332</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="5"/>
+        <v>25789.5</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="5"/>
+        <v>21621</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="5"/>
+        <v>11268</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="5"/>
+        <v>15403.5</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="5"/>
+        <v>9792</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="5"/>
+        <v>7609.5</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="5"/>
+        <v>9405</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="5"/>
+        <v>7197.5</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="5"/>
+        <v>29468.25</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="5"/>
+        <v>22573.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B34" s="5">
         <v>38807</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C34" s="5">
         <v>36191.25</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D34" s="5">
         <v>37725</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E34" s="5">
         <v>32729.25</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F34" s="5">
         <v>33647.25</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G34" s="5">
         <v>57430.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H34" s="5">
         <v>57603</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I34" s="5">
         <v>61940.25</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J34" s="5">
         <v>49245.75</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K34" s="5">
         <v>56768.25</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L34" s="5">
         <v>53391</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M34" s="6">
         <v>41883</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N34" s="5">
         <v>38807</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O34" s="5">
         <v>36191.25</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P34" s="5">
         <v>37725</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q34" s="5">
         <v>32729.25</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R34" s="5">
         <v>33647.25</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S34" s="5">
         <v>57430.5</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T34" s="5">
         <v>57603</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B35" s="5">
         <v>62160</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C35" s="5">
         <v>51659.530011587485</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D35" s="5">
         <v>44160</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E35" s="5">
         <v>47640</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F35" s="5">
         <v>49175.999999999985</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G35" s="5">
         <v>68206.569506830754</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H35" s="5">
         <v>66654.000000000015</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I35" s="5">
         <v>71148</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J35" s="5">
         <v>66653.999999999985</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K35" s="5">
         <v>63480</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L35" s="5">
         <v>61110</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M35" s="6">
         <v>54239.999999999993</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N35" s="5">
         <v>62160</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O35" s="5">
         <v>51659.530011587485</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P35" s="5">
         <v>44160</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q35" s="5">
         <v>47640</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R35" s="5">
         <v>49175.999999999985</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S35" s="5">
         <v>68206.569506830754</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T35" s="5">
         <v>66654.000000000015</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3373,7 +3944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF6A449-6462-40EC-A3DA-01359172B0CA}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A7EA82-2C8C-49D8-8FD2-EA6C2FD2F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCD2B6-C50D-40CB-810A-4B517004FF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
@@ -197,8 +197,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -381,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,7 +451,10 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -769,27 +773,15 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="N2" sqref="N2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -858,79 +850,79 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="24">
         <f>SUM(B3:B22)</f>
         <v>1203.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="24">
         <f t="shared" ref="C2:M2" si="0">SUM(C3:C22)</f>
         <v>1160.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="24">
         <f t="shared" si="0"/>
         <v>1183.25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="24">
         <f t="shared" si="0"/>
         <v>1033</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="24">
         <f t="shared" si="0"/>
         <v>1240.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="24">
         <f t="shared" si="0"/>
         <v>1813.25</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="24">
         <f t="shared" si="0"/>
         <v>1823.25</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="24">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="24">
         <f t="shared" si="0"/>
         <v>1566.75</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="24">
         <f t="shared" si="0"/>
         <v>1794.5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="24">
         <f t="shared" si="0"/>
         <v>1700.3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="24">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="24">
         <f>SUM(N3:N22)</f>
         <v>1203.5</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="1">SUM(O3:O22)</f>
         <v>1160.5</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="24">
         <f t="shared" ref="P2" si="2">SUM(P3:P22)</f>
         <v>1183.25</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">SUM(Q3:Q22)</f>
         <v>1033</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="24">
         <f t="shared" ref="R2" si="4">SUM(R3:R22)</f>
         <v>1240.5</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="5">SUM(S3:S22)</f>
         <v>1813.25</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="24">
         <f t="shared" ref="T2" si="6">SUM(T3:T22)</f>
         <v>1823.25</v>
       </c>
@@ -939,61 +931,61 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="24">
         <v>28.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="24">
         <v>32</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="24">
         <v>47.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="24">
         <v>32</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="24">
         <v>40</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="24">
         <v>32</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="24">
         <v>32</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="24">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="24">
         <v>32</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="24">
         <v>32</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="24">
         <v>32</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="24">
         <v>32</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="24">
         <v>28.5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="24">
         <v>32</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="24">
         <v>47.5</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="24">
         <v>32</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="24">
         <v>40</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="24">
         <v>32</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="24">
         <v>32</v>
       </c>
     </row>
@@ -1001,61 +993,61 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
         <v>104.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="24">
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="24">
         <v>21</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="24">
         <v>53</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="24">
         <v>71</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="24">
         <v>35.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="24">
         <v>43</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="24">
         <v>30</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="24">
         <v>74</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="24">
         <v>48.5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="24">
         <v>19.5</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="24">
         <v>28.5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="24">
         <v>104.5</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="24">
         <v>69.5</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="24">
         <v>21</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="24">
         <v>53</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="24">
         <v>71</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="24">
         <v>35.5</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="24">
         <v>43</v>
       </c>
     </row>
@@ -1063,61 +1055,61 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="24">
         <v>84.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="24">
         <v>102.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="24">
         <v>121</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="24">
         <v>99</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="24">
         <v>121.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="24">
         <v>125.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="24">
         <v>98</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="24">
         <v>106.5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="24">
         <v>68</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="24">
         <v>110</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="24">
         <v>159.5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="24">
         <v>136</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="24">
         <v>84.5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="24">
         <v>102.5</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="24">
         <v>121</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="24">
         <v>99</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="24">
         <v>121.5</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="24">
         <v>125.5</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="24">
         <v>98</v>
       </c>
     </row>
@@ -1125,61 +1117,61 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="24">
         <v>138</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="24">
         <v>27.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="24">
         <v>52.75</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="24">
         <v>27.25</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="24">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="24">
         <v>15.75</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="24">
         <v>11</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="24">
         <v>5.5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="24">
         <v>21.5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="24">
         <v>17.5</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="24">
         <v>21</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="24">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="24">
         <v>138</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="24">
         <v>27.5</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="24">
         <v>52.75</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="24">
         <v>27.25</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="24">
         <v>12</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="24">
         <v>15.75</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="24">
         <v>11</v>
       </c>
     </row>
@@ -1187,61 +1179,61 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="24">
         <v>183</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="24">
         <v>132.25</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="24">
         <v>183</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="24">
         <v>138</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="24">
         <v>197.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="24">
         <v>198.25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="24">
         <v>146.5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="24">
         <v>202.5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="24">
         <v>155.5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="24">
         <v>175.5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="24">
         <v>179.5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="24">
         <v>154</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="24">
         <v>183</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="24">
         <v>132.25</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="24">
         <v>183</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="24">
         <v>138</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="24">
         <v>197.5</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="24">
         <v>198.25</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="24">
         <v>146.5</v>
       </c>
     </row>
@@ -1249,61 +1241,61 @@
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="24">
         <v>223.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="24">
         <v>193</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="24">
         <v>157.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="24">
         <v>159.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="24">
         <v>145.25</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="24">
         <v>138.25</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="24">
         <v>160</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="24">
         <v>102.75</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="24">
         <v>116.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="24">
         <v>145</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="24">
         <v>99.5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="24">
         <v>80</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="24">
         <v>223.5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="24">
         <v>193</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="24">
         <v>157.5</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="24">
         <v>159.25</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="24">
         <v>145.25</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="24">
         <v>138.25</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="24">
         <v>160</v>
       </c>
     </row>
@@ -1311,61 +1303,61 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="24">
         <v>95.5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="24">
         <v>124</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="24">
         <v>107.75</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="24">
         <v>110.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="24">
         <v>105</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="24">
         <v>53.75</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="24">
         <v>67.5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="24">
         <v>33.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="24">
         <v>50.5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="24">
         <v>17</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="24">
         <v>15</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="24">
         <v>0.5</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="24">
         <v>95.5</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="24">
         <v>124</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="24">
         <v>107.75</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="24">
         <v>110.5</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="24">
         <v>105</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="24">
         <v>53.75</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="24">
         <v>67.5</v>
       </c>
     </row>
@@ -1373,61 +1365,61 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="24">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="24">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="24">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="24">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="24">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="24">
         <v>3.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="24">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="24">
         <v>46.5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="24">
         <v>36.799999999999997</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="24">
         <v>57.75</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="24">
         <v>29.5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="24">
         <v>55.5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="24">
         <v>2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="24">
         <v>18</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="24">
         <v>19</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="24">
         <v>10</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="24">
         <v>5</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="24">
         <v>3.5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1435,61 +1427,61 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="24">
         <v>30.5</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
         <v>30.5</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1497,61 +1489,61 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="24">
         <v>13.5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="24">
         <v>93.25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="24">
         <v>86.75</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="24">
         <v>36.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="24">
         <v>44</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="24">
         <v>49.5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="24">
         <v>58</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="24">
         <v>46</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="24">
         <v>55.5</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="24">
         <v>38</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="24">
         <v>45.5</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="24">
         <v>116.5</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="24">
         <v>13.5</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="24">
         <v>93.25</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="24">
         <v>86.75</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="24">
         <v>36.5</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="24">
         <v>44</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="24">
         <v>49.5</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="24">
         <v>58</v>
       </c>
     </row>
@@ -1559,61 +1551,61 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="24">
         <v>144</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="24">
         <v>81.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="24">
         <v>53</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="24">
         <v>103.75</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="24">
         <v>135.5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="24">
         <v>119.75</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="24">
         <v>318.5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="24">
         <v>385.5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="24">
         <v>311</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="24">
         <v>480</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="24">
         <v>405.5</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="24">
         <v>251.5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="24">
         <v>144</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="24">
         <v>81.5</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="24">
         <v>53</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="24">
         <v>103.75</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="24">
         <v>135.5</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="24">
         <v>119.75</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="24">
         <v>318.5</v>
       </c>
     </row>
@@ -1621,61 +1613,61 @@
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="24">
         <v>156</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="24">
         <v>211.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="24">
         <v>220</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="24">
         <v>145.25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="24">
         <v>175.25</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="24">
         <v>117</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="24">
         <v>256</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="24">
         <v>199</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="24">
         <v>140</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="24">
         <v>235.25</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="24">
         <v>130.80000000000001</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="24">
         <v>103.5</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="24">
         <v>156</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="24">
         <v>211.5</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="24">
         <v>220</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="24">
         <v>145.25</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="24">
         <v>175.25</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="24">
         <v>117</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="24">
         <v>256</v>
       </c>
     </row>
@@ -1683,57 +1675,57 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24">
         <v>75.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="24">
         <v>70</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="24">
         <v>52.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="24">
         <v>130.5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="24">
         <v>136</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="24">
         <v>237.75</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="24">
         <v>217.75</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="24">
         <v>228.5</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="24">
         <v>193</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="24">
         <v>247</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="24">
         <v>209</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24">
         <v>75.5</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="24">
         <v>70</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="24">
         <v>52.5</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="24">
         <v>130.5</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="24">
         <v>136</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="24">
         <v>237.75</v>
       </c>
     </row>
@@ -1741,53 +1733,53 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
         <v>44</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="24">
         <v>66</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="24">
         <v>53.5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="24">
         <v>59.5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="24">
         <v>65</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="24">
         <v>17.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="24">
         <v>29</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="24">
         <v>12</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="24">
         <v>45.5</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="24">
         <v>29</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24">
         <v>44</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="24">
         <v>66</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="24">
         <v>53.5</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="24">
         <v>59.5</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="24">
         <v>65</v>
       </c>
     </row>
@@ -1795,45 +1787,45 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
         <v>4.5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="24">
         <v>295</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="24">
         <v>89</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="24">
         <v>59</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="24">
         <v>20</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="24">
         <v>10</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="24">
         <v>39</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24">
         <v>4.5</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="24">
         <v>295</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="24">
         <v>89</v>
       </c>
     </row>
@@ -1841,41 +1833,41 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <v>390</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="24">
         <v>161</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="24">
         <v>280</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="24">
         <v>74.5</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2">
+      <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24">
         <v>390</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="24">
         <v>161</v>
       </c>
     </row>
@@ -1883,41 +1875,41 @@
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24">
         <v>44</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="24">
         <v>77</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="24">
         <v>35</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="24">
         <v>75.45</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
         <v>68.5</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="24">
         <v>64</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2">
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24">
         <v>44</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="24">
         <v>77</v>
       </c>
     </row>
@@ -1925,93 +1917,93 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24">
         <v>146</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="24">
         <v>30</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24">
         <v>48</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="24">
         <v>223</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="24">
         <v>163</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="24">
         <v>61</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="2">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="24">
         <v>20</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2023,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,11 +3318,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" ref="B27:T27" si="0">B12+B15</f>
+        <f>B12+B15</f>
         <v>406.5</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B27:T27" si="0">C12+C15</f>
         <v>5360.25</v>
       </c>
       <c r="D27" s="5">
@@ -3945,7 +3937,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4844,9 +4836,7 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10">
         <v>0.47067207415990731</v>
       </c>
@@ -4880,9 +4870,7 @@
       <c r="M15" s="14">
         <v>1.5911827195467423</v>
       </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
+      <c r="N15" s="10"/>
       <c r="O15" s="10">
         <v>0.47067207415990731</v>
       </c>
@@ -4906,12 +4894,8 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10">
         <v>0.24692251991310643</v>
       </c>
@@ -4940,12 +4924,8 @@
         <v>0.2945398254995778</v>
       </c>
       <c r="M16" s="14"/>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="10">
         <v>0.24692251991310643</v>
       </c>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C11EEE7-DF0A-4980-8624-46D5D6E25723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB230E7A-6DEE-442A-B2C6-343826190F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="58">
   <si>
     <t>Project</t>
   </si>
@@ -181,22 +181,10 @@
     <t>Jul 24</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
     <t>Investment</t>
-  </si>
-  <si>
-    <t>Business Operation</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>Status</t>
@@ -221,6 +209,15 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Client &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Data &amp; Architecture</t>
+  </si>
+  <si>
+    <t>IT&amp; BO</t>
   </si>
 </sst>
 </file>
@@ -2070,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4">
         <f>B12+B15</f>
@@ -3450,55 +3447,55 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4">
-        <f>B16</f>
+        <f>B20</f>
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:T28" si="1">C16</f>
+        <f t="shared" ref="C28:T28" si="1">C20</f>
         <v>0</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>1630.5</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>4776</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>870</v>
+        <v>916.5</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
@@ -3510,104 +3507,104 @@
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>1630.5</v>
+        <v>0</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>1977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4">
-        <f>B20</f>
-        <v>0</v>
+        <f>B8+B19+B14+B5+B7+B10</f>
+        <v>21215</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:T29" si="2">C20</f>
-        <v>0</v>
+        <f t="shared" ref="C29:T29" si="2">C8+C19+C14+C5+C7+C10</f>
+        <v>19983</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22236</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17361.75</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20004.75</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19473.75</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23031</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="2"/>
-        <v>4776</v>
+        <v>21377.25</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="2"/>
-        <v>916.5</v>
+        <v>18488.25</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22569.75</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20523</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18222</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21215</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19983</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22236</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17361.75</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20004.75</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19473.75</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23031</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -3615,365 +3612,284 @@
         <v>46</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" ref="B30:T30" si="3">B8+B19+B14+B5+B7+B10</f>
-        <v>21215</v>
+        <f>B3+B22+B11</f>
+        <v>1782</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="3"/>
-        <v>19983</v>
+        <f t="shared" ref="C30:T30" si="3">C3+C22+C11</f>
+        <v>1056</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="3"/>
-        <v>22236</v>
+        <v>1567.5</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="3"/>
-        <v>17361.75</v>
+        <v>1056</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>20004.75</v>
+        <v>1320</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>19473.75</v>
+        <v>1056</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="3"/>
-        <v>23031</v>
+        <v>1056</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>21377.25</v>
+        <v>1320</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="3"/>
-        <v>18488.25</v>
+        <v>1056</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="3"/>
-        <v>22569.75</v>
+        <v>1056</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>20523</v>
+        <v>1056</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="3"/>
-        <v>18222</v>
+        <v>1698</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="3"/>
-        <v>21215</v>
+        <v>1782</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="3"/>
-        <v>19983</v>
+        <v>1056</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="3"/>
-        <v>22236</v>
+        <v>1567.5</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="3"/>
-        <v>17361.75</v>
+        <v>1056</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="3"/>
-        <v>20004.75</v>
+        <v>1320</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="3"/>
-        <v>19473.75</v>
+        <v>1056</v>
       </c>
       <c r="T30" s="4">
         <f t="shared" si="3"/>
-        <v>23031</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" ref="B31:T31" si="4">B3+B22+B11</f>
-        <v>1782</v>
+        <f>B9+B13+B6+B4+B21+B17+B18+B16</f>
+        <v>15403.5</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="4"/>
-        <v>1056</v>
+        <f t="shared" ref="C31:T31" si="4">C9+C13+C6+C4+C21+C17+C18+C16</f>
+        <v>9792</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="4"/>
-        <v>1567.5</v>
+        <v>9061.5</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>11583</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>1320</v>
+        <v>8828</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>31253.25</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>24550.5</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>1320</v>
+        <v>26488.5</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>20202</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>26149.5</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>22986</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="4"/>
-        <v>1698</v>
+        <v>12138</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="4"/>
-        <v>1782</v>
+        <v>15403.5</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>9792</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="4"/>
-        <v>1567.5</v>
+        <v>9061.5</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>11583</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="4"/>
-        <v>1320</v>
+        <v>8828</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>31253.25</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" si="4"/>
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B9+B13+B6+B4+B21+B17+B18</f>
-        <v>15403.5</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" ref="C32:T32" si="5">C9+C13+C6+C4+C21+C17+C18</f>
-        <v>9792</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="5"/>
-        <v>7609.5</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="5"/>
-        <v>9405</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="5"/>
-        <v>7197.5</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="5"/>
-        <v>29468.25</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="5"/>
-        <v>22573.5</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="5"/>
-        <v>25963.5</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="5"/>
-        <v>19332</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="5"/>
-        <v>25789.5</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="5"/>
-        <v>21621</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="5"/>
-        <v>11268</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="5"/>
-        <v>15403.5</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="5"/>
-        <v>9792</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="5"/>
-        <v>7609.5</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="5"/>
-        <v>9405</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="5"/>
-        <v>7197.5</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="5"/>
-        <v>29468.25</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="5"/>
-        <v>22573.5</v>
+        <v>24550.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4">
+        <v>38807</v>
+      </c>
+      <c r="C33" s="4">
+        <v>36191.25</v>
+      </c>
+      <c r="D33" s="4">
+        <v>37725</v>
+      </c>
+      <c r="E33" s="4">
+        <v>32729.25</v>
+      </c>
+      <c r="F33" s="4">
+        <v>33647.25</v>
+      </c>
+      <c r="G33" s="4">
+        <v>57430.5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>57603</v>
+      </c>
+      <c r="I33" s="4">
+        <v>61940.25</v>
+      </c>
+      <c r="J33" s="4">
+        <v>49245.75</v>
+      </c>
+      <c r="K33" s="4">
+        <v>56768.25</v>
+      </c>
+      <c r="L33" s="4">
+        <v>53391</v>
+      </c>
+      <c r="M33" s="5">
+        <v>41883</v>
+      </c>
+      <c r="N33" s="4">
+        <v>38807</v>
+      </c>
+      <c r="O33" s="4">
+        <v>36191.25</v>
+      </c>
+      <c r="P33" s="4">
+        <v>37725</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>32729.25</v>
+      </c>
+      <c r="R33" s="4">
+        <v>33647.25</v>
+      </c>
+      <c r="S33" s="4">
+        <v>57430.5</v>
+      </c>
+      <c r="T33" s="4">
+        <v>57603</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4">
-        <v>38807</v>
+        <v>62160</v>
       </c>
       <c r="C34" s="4">
-        <v>36191.25</v>
+        <v>51659.530011587485</v>
       </c>
       <c r="D34" s="4">
-        <v>37725</v>
+        <v>44160</v>
       </c>
       <c r="E34" s="4">
-        <v>32729.25</v>
+        <v>47640</v>
       </c>
       <c r="F34" s="4">
-        <v>33647.25</v>
+        <v>49175.999999999985</v>
       </c>
       <c r="G34" s="4">
-        <v>57430.5</v>
+        <v>68206.569506830754</v>
       </c>
       <c r="H34" s="4">
-        <v>57603</v>
+        <v>66654.000000000015</v>
       </c>
       <c r="I34" s="4">
-        <v>61940.25</v>
+        <v>71148</v>
       </c>
       <c r="J34" s="4">
-        <v>49245.75</v>
+        <v>66653.999999999985</v>
       </c>
       <c r="K34" s="4">
-        <v>56768.25</v>
+        <v>63480</v>
       </c>
       <c r="L34" s="4">
-        <v>53391</v>
+        <v>61110</v>
       </c>
       <c r="M34" s="5">
-        <v>41883</v>
+        <v>54239.999999999993</v>
       </c>
       <c r="N34" s="4">
-        <v>38807</v>
+        <v>62160</v>
       </c>
       <c r="O34" s="4">
-        <v>36191.25</v>
+        <v>51659.530011587485</v>
       </c>
       <c r="P34" s="4">
-        <v>37725</v>
+        <v>44160</v>
       </c>
       <c r="Q34" s="4">
-        <v>32729.25</v>
+        <v>47640</v>
       </c>
       <c r="R34" s="4">
-        <v>33647.25</v>
+        <v>49175.999999999985</v>
       </c>
       <c r="S34" s="4">
-        <v>57430.5</v>
+        <v>68206.569506830754</v>
       </c>
       <c r="T34" s="4">
-        <v>57603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="4">
-        <v>62160</v>
-      </c>
-      <c r="C35" s="4">
-        <v>51659.530011587485</v>
-      </c>
-      <c r="D35" s="4">
-        <v>44160</v>
-      </c>
-      <c r="E35" s="4">
-        <v>47640</v>
-      </c>
-      <c r="F35" s="4">
-        <v>49175.999999999985</v>
-      </c>
-      <c r="G35" s="4">
-        <v>68206.569506830754</v>
-      </c>
-      <c r="H35" s="4">
-        <v>66654.000000000015</v>
-      </c>
-      <c r="I35" s="4">
-        <v>71148</v>
-      </c>
-      <c r="J35" s="4">
-        <v>66653.999999999985</v>
-      </c>
-      <c r="K35" s="4">
-        <v>63480</v>
-      </c>
-      <c r="L35" s="4">
-        <v>61110</v>
-      </c>
-      <c r="M35" s="5">
-        <v>54239.999999999993</v>
-      </c>
-      <c r="N35" s="4">
-        <v>62160</v>
-      </c>
-      <c r="O35" s="4">
-        <v>51659.530011587485</v>
-      </c>
-      <c r="P35" s="4">
-        <v>44160</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>47640</v>
-      </c>
-      <c r="R35" s="4">
-        <v>49175.999999999985</v>
-      </c>
-      <c r="S35" s="4">
-        <v>68206.569506830754</v>
-      </c>
-      <c r="T35" s="4">
         <v>66654.000000000015</v>
       </c>
     </row>
@@ -5407,7 +5323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092E153-8D0D-4645-B4CE-B4FD8CEEE478}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5421,31 +5337,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +5369,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5461,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5469,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5477,7 +5393,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5485,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5493,7 +5409,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5501,7 +5417,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5509,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5517,7 +5433,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5533,7 +5449,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5541,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5549,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5557,7 +5473,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5565,7 +5481,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5573,7 +5489,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5581,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5589,7 +5505,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +5513,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5521,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB230E7A-6DEE-442A-B2C6-343826190F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40F897-F8FC-4FAF-A384-8C3702C63906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="4" r:id="rId2"/>
     <sheet name="Resource" sheetId="3" r:id="rId3"/>
-    <sheet name="Status" sheetId="8" r:id="rId4"/>
-    <sheet name="Bug" sheetId="5" r:id="rId5"/>
-    <sheet name="Execution" sheetId="6" r:id="rId6"/>
+    <sheet name="CostDep" sheetId="9" r:id="rId4"/>
+    <sheet name="Department" sheetId="10" r:id="rId5"/>
+    <sheet name="Status" sheetId="8" r:id="rId6"/>
+    <sheet name="Bug" sheetId="5" r:id="rId7"/>
+    <sheet name="Execution" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Status!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Department!$A$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Status!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="64">
   <si>
     <t>Project</t>
   </si>
@@ -181,12 +184,6 @@
     <t>Jul 24</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -211,13 +208,37 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>Client &amp; Marketing</t>
+    <t>Department</t>
   </si>
   <si>
-    <t>Data &amp; Architecture</t>
+    <t>CLIENTS &amp; MARKETING</t>
   </si>
   <si>
-    <t>IT&amp; BO</t>
+    <t>DATA &amp; ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
+  </si>
+  <si>
+    <t>IT BUSINESS OPERATIONS</t>
+  </si>
+  <si>
+    <t>CLIENTS &amp; MARKETING (Total)</t>
+  </si>
+  <si>
+    <t>DATA &amp; ARCHITECTURE (Total)</t>
+  </si>
+  <si>
+    <t>FINANCE (Total)</t>
+  </si>
+  <si>
+    <t>INVESTMENT (Total)</t>
+  </si>
+  <si>
+    <t>IT BUSINESS OPERATIONS (Total)</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +531,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -828,7 +850,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,407 +3388,407 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" s="4">
-        <f>B12+B15</f>
-        <v>406.5</v>
+        <f>B9+B13+B6+B4+B21+B17+B18+B16</f>
+        <v>15403.5</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:T27" si="0">C12+C15</f>
-        <v>5360.25</v>
+        <f>C9+C13+C6+C4+C21+C17+C18+C16</f>
+        <v>9792</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>4860</v>
+        <f>D9+D13+D6+D4+D21+D17+D18+D16</f>
+        <v>9061.5</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>2728.5</v>
+        <f>E9+E13+E6+E4+E21+E17+E18+E16</f>
+        <v>11583</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>3494.5</v>
+        <f>F9+F13+F6+F4+F21+F17+F18+F16</f>
+        <v>8828</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>5647.5</v>
+        <f>G9+G13+G6+G4+G21+G17+G18+G16</f>
+        <v>31253.25</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>8965.5</v>
+        <f>H9+H13+H6+H4+H21+H17+H18+H16</f>
+        <v>24550.5</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>7978.5</v>
+        <f>I9+I13+I6+I4+I21+I17+I18+I16</f>
+        <v>26488.5</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="0"/>
-        <v>8583</v>
+        <f>J9+J13+J6+J4+J21+J17+J18+J16</f>
+        <v>20202</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="0"/>
-        <v>6993</v>
+        <f>K9+K13+K6+K4+K21+K17+K18+K16</f>
+        <v>26149.5</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="0"/>
-        <v>8826</v>
+        <f>L9+L13+L6+L4+L21+L17+L18+L16</f>
+        <v>22986</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="0"/>
-        <v>9825</v>
+        <f>M9+M13+M6+M4+M21+M17+M18+M16</f>
+        <v>12138</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="0"/>
-        <v>406.5</v>
+        <f>N9+N13+N6+N4+N21+N17+N18+N16</f>
+        <v>15403.5</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="0"/>
-        <v>5360.25</v>
+        <f>O9+O13+O6+O4+O21+O17+O18+O16</f>
+        <v>9792</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="0"/>
-        <v>4860</v>
+        <f>P9+P13+P6+P4+P21+P17+P18+P16</f>
+        <v>9061.5</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="0"/>
-        <v>2728.5</v>
+        <f>Q9+Q13+Q6+Q4+Q21+Q17+Q18+Q16</f>
+        <v>11583</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="0"/>
-        <v>3494.5</v>
+        <f>R9+R13+R6+R4+R21+R17+R18+R16</f>
+        <v>8828</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="0"/>
-        <v>5647.5</v>
+        <f>S9+S13+S6+S4+S21+S17+S18+S16</f>
+        <v>31253.25</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="0"/>
-        <v>8965.5</v>
+        <f>T9+T13+T6+T4+T21+T17+T18+T16</f>
+        <v>24550.5</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4">
         <f>B20</f>
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:T28" si="1">C20</f>
+        <f t="shared" ref="C28:T28" si="0">C20</f>
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4776</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>916.5</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4">
         <f>B8+B19+B14+B5+B7+B10</f>
         <v>21215</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:T29" si="2">C8+C19+C14+C5+C7+C10</f>
+        <f t="shared" ref="C29:T29" si="1">C8+C19+C14+C5+C7+C10</f>
         <v>19983</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22236</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17361.75</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20004.75</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19473.75</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23031</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21377.25</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18488.25</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22569.75</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20523</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18222</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21215</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19983</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22236</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17361.75</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20004.75</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19473.75</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23031</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B30" s="4">
         <f>B3+B22+B11</f>
         <v>1782</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30:T30" si="3">C3+C22+C11</f>
+        <f>C3+C22+C11</f>
         <v>1056</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="3"/>
+        <f>D3+D22+D11</f>
         <v>1567.5</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="3"/>
+        <f>E3+E22+E11</f>
         <v>1056</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="3"/>
+        <f>F3+F22+F11</f>
         <v>1320</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="3"/>
+        <f>G3+G22+G11</f>
         <v>1056</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="3"/>
+        <f>H3+H22+H11</f>
         <v>1056</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="3"/>
+        <f>I3+I22+I11</f>
         <v>1320</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="3"/>
+        <f>J3+J22+J11</f>
         <v>1056</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="3"/>
+        <f>K3+K22+K11</f>
         <v>1056</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="3"/>
+        <f>L3+L22+L11</f>
         <v>1056</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="3"/>
+        <f>M3+M22+M11</f>
         <v>1698</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="3"/>
+        <f>N3+N22+N11</f>
         <v>1782</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="3"/>
+        <f>O3+O22+O11</f>
         <v>1056</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f>P3+P22+P11</f>
         <v>1567.5</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="3"/>
+        <f>Q3+Q22+Q11</f>
         <v>1056</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="3"/>
+        <f>R3+R22+R11</f>
         <v>1320</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="3"/>
+        <f>S3+S22+S11</f>
         <v>1056</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="3"/>
+        <f>T3+T22+T11</f>
         <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4">
-        <f>B9+B13+B6+B4+B21+B17+B18+B16</f>
-        <v>15403.5</v>
+        <f>B12+B15</f>
+        <v>406.5</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31:T31" si="4">C9+C13+C6+C4+C21+C17+C18+C16</f>
-        <v>9792</v>
+        <f>C12+C15</f>
+        <v>5360.25</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="4"/>
-        <v>9061.5</v>
+        <f>D12+D15</f>
+        <v>4860</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="4"/>
-        <v>11583</v>
+        <f>E12+E15</f>
+        <v>2728.5</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="4"/>
-        <v>8828</v>
+        <f>F12+F15</f>
+        <v>3494.5</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="4"/>
-        <v>31253.25</v>
+        <f>G12+G15</f>
+        <v>5647.5</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="4"/>
-        <v>24550.5</v>
+        <f>H12+H15</f>
+        <v>8965.5</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="4"/>
-        <v>26488.5</v>
+        <f>I12+I15</f>
+        <v>7978.5</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
-        <v>20202</v>
+        <f>J12+J15</f>
+        <v>8583</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="4"/>
-        <v>26149.5</v>
+        <f>K12+K15</f>
+        <v>6993</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="4"/>
-        <v>22986</v>
+        <f>L12+L15</f>
+        <v>8826</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="4"/>
-        <v>12138</v>
+        <f>M12+M15</f>
+        <v>9825</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="4"/>
-        <v>15403.5</v>
+        <f>N12+N15</f>
+        <v>406.5</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="4"/>
-        <v>9792</v>
+        <f>O12+O15</f>
+        <v>5360.25</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="4"/>
-        <v>9061.5</v>
+        <f>P12+P15</f>
+        <v>4860</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="4"/>
-        <v>11583</v>
+        <f>Q12+Q15</f>
+        <v>2728.5</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="4"/>
-        <v>8828</v>
+        <f>R12+R15</f>
+        <v>3494.5</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="4"/>
-        <v>31253.25</v>
+        <f>S12+S15</f>
+        <v>5647.5</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="4"/>
-        <v>24550.5</v>
+        <f>T12+T15</f>
+        <v>8965.5</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -3904,7 +3926,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5320,6 +5342,1963 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AA6229-5E79-4F3C-997C-595DE0D0914A}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B11+B13+B20+B24+B27</f>
+        <v>38807</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:T2" si="0">C11+C13+C20+C24+C27</f>
+        <v>36191.25</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
+        <v>37725</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>32729.25</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>33647.25</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>57430.5</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>57603</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>61940.25</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>49245.75</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>56768.25</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>53391</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>41883</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>38807</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>36191.25</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>37725</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>32729.25</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>33647.25</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>57430.5</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>57603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2178</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1630.5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1785</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1977</v>
+      </c>
+      <c r="I3" s="4">
+        <v>525</v>
+      </c>
+      <c r="J3" s="4">
+        <v>870</v>
+      </c>
+      <c r="K3" s="4">
+        <v>360</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1365</v>
+      </c>
+      <c r="M3" s="4">
+        <v>870</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2178</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1630.5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1785</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>1566</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7116</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5307</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2007</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2865</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4092</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3426.75</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3469.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3318</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1773.75</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2227.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1105.5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1515</v>
+      </c>
+      <c r="K5" s="4">
+        <v>510</v>
+      </c>
+      <c r="L5" s="4">
+        <v>450</v>
+      </c>
+      <c r="M5" s="4">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2865</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4092</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3426.75</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3469.5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3318</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1773.75</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2227.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4671</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2689.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1749</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3287.25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1331</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3951.75</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10510.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>12721.5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10197</v>
+      </c>
+      <c r="K6" s="4">
+        <v>15799.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>13344</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8274</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4671</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2689.5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1749</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3287.25</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1331</v>
+      </c>
+      <c r="S6" s="4">
+        <v>3951.75</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10510.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9735</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2937</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1947</v>
+      </c>
+      <c r="J7" s="4">
+        <v>660</v>
+      </c>
+      <c r="K7" s="4">
+        <v>330</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1287</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="S7" s="4">
+        <v>9735</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>12423</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5245.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9108</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2457</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
+        <v>12423</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5245.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4497</v>
+      </c>
+      <c r="C9" s="4">
+        <v>907.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1740.75</v>
+      </c>
+      <c r="E9" s="4">
+        <v>899.25</v>
+      </c>
+      <c r="F9" s="4">
+        <v>360</v>
+      </c>
+      <c r="G9" s="4">
+        <v>519.75</v>
+      </c>
+      <c r="H9" s="4">
+        <v>363</v>
+      </c>
+      <c r="I9" s="4">
+        <v>181.5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>645</v>
+      </c>
+      <c r="K9" s="4">
+        <v>525</v>
+      </c>
+      <c r="L9" s="4">
+        <v>630</v>
+      </c>
+      <c r="M9" s="4">
+        <v>90</v>
+      </c>
+      <c r="N9" s="4">
+        <v>4497</v>
+      </c>
+      <c r="O9" s="4">
+        <v>907.5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1740.75</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>899.25</v>
+      </c>
+      <c r="R9" s="4">
+        <v>360</v>
+      </c>
+      <c r="S9" s="4">
+        <v>519.75</v>
+      </c>
+      <c r="T9" s="4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3370.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2103</v>
+      </c>
+      <c r="D10" s="4">
+        <v>693</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1749</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2136</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1065</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1290</v>
+      </c>
+      <c r="I10" s="4">
+        <v>900</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2292</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1509</v>
+      </c>
+      <c r="L10" s="4">
+        <v>603</v>
+      </c>
+      <c r="M10" s="4">
+        <v>882</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3370.5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2103</v>
+      </c>
+      <c r="P10" s="4">
+        <v>693</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1749</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2136</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1065</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUM(B3:B10)</f>
+        <v>15403.5</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:T11" si="1">SUM(C3:C10)</f>
+        <v>9792</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>9061.5</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>11583</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>8828</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>31253.25</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>24550.5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>26488.5</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>20202</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>26149.5</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>22986</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>12138</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>15403.5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>9792</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>9061.5</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="1"/>
+        <v>11583</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="1"/>
+        <v>8828</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>31253.25</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>24550.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>4776</v>
+      </c>
+      <c r="J12" s="4">
+        <v>916.5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUM(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:T13" si="2">SUM(C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>4776</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>916.5</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7327.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5799</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4986</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5027.25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4651.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4452</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5241</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3349.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3844.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4785</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3283.5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2640</v>
+      </c>
+      <c r="N14" s="4">
+        <v>7327.5</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5799</v>
+      </c>
+      <c r="P14" s="4">
+        <v>4986</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5027.25</v>
+      </c>
+      <c r="R14" s="4">
+        <v>4651.5</v>
+      </c>
+      <c r="S14" s="4">
+        <v>4452</v>
+      </c>
+      <c r="T14" s="4">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4">
+        <v>576</v>
+      </c>
+      <c r="D15" s="4">
+        <v>570</v>
+      </c>
+      <c r="E15" s="4">
+        <v>300</v>
+      </c>
+      <c r="F15" s="4">
+        <v>165</v>
+      </c>
+      <c r="G15" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1534.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1200.9000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1812.75</v>
+      </c>
+      <c r="L15" s="4">
+        <v>885</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1665</v>
+      </c>
+      <c r="N15" s="4">
+        <v>66</v>
+      </c>
+      <c r="O15" s="4">
+        <v>576</v>
+      </c>
+      <c r="P15" s="4">
+        <v>570</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>300</v>
+      </c>
+      <c r="R15" s="4">
+        <v>165</v>
+      </c>
+      <c r="S15" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="T15" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>1452</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2541</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1127.25</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2461.35</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2260.5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2112</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <v>1452</v>
+      </c>
+      <c r="T16" s="4">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5081</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6499.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7156.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4693.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5618.25</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3570</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7734</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6027</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4276.5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7407</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3924.0000000000005</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3105</v>
+      </c>
+      <c r="N17" s="4">
+        <v>5081</v>
+      </c>
+      <c r="O17" s="4">
+        <v>6499.5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>7156.5</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>4693.5</v>
+      </c>
+      <c r="R17" s="4">
+        <v>5618.25</v>
+      </c>
+      <c r="S17" s="4">
+        <v>3570</v>
+      </c>
+      <c r="T17" s="4">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2745</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3111</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3780</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3030</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3645</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3765</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2940</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3195</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2040</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3300</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4785</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4080</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2745</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3111</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3780</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>3030</v>
+      </c>
+      <c r="R18" s="4">
+        <v>3645</v>
+      </c>
+      <c r="S18" s="4">
+        <v>3765</v>
+      </c>
+      <c r="T18" s="4">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5995.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3997.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5743.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4311</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5925</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6119.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4476</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6144</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4665</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5265</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5385</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4620</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5995.5</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3997.5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5743.5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>4311</v>
+      </c>
+      <c r="R19" s="4">
+        <v>5925</v>
+      </c>
+      <c r="S19" s="4">
+        <v>6119.25</v>
+      </c>
+      <c r="T19" s="4">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUM(B14:B19)</f>
+        <v>21215</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20:T20" si="3">SUM(C14:C19)</f>
+        <v>19983</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="3"/>
+        <v>22236</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>17361.75</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="3"/>
+        <v>20004.75</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>19473.75</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>23031</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>21377.25</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>18488.25</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="3"/>
+        <v>22569.75</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>20523</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="3"/>
+        <v>18222</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>21215</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="3"/>
+        <v>19983</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="3"/>
+        <v>22236</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="3"/>
+        <v>17361.75</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="3"/>
+        <v>20004.75</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="3"/>
+        <v>19473.75</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="3"/>
+        <v>23031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>855</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1567.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1320</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="N21" s="4">
+        <v>855</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1567.5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1320</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1056</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <v>642</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>927</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>927</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(B21:B23)</f>
+        <v>1782</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:T24" si="4">SUM(C21:C23)</f>
+        <v>1056</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>1567.5</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="4"/>
+        <v>1698</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="4"/>
+        <v>1782</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="4"/>
+        <v>1567.5</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="4"/>
+        <v>1320</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>2371.5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1575</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2102.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4080</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7132.5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>6532.5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6855</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5790</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7410</v>
+      </c>
+      <c r="M25" s="4">
+        <v>6270</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
+        <v>2371.5</v>
+      </c>
+      <c r="P25" s="4">
+        <v>2100</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1575</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2102.5</v>
+      </c>
+      <c r="S25" s="4">
+        <v>4080</v>
+      </c>
+      <c r="T25" s="4">
+        <v>7132.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4">
+        <v>406.5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2988.75</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2760</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1153.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1392</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1567.5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1833</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1446</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1728</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1203</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1416</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3555</v>
+      </c>
+      <c r="N26" s="4">
+        <v>406.5</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2988.75</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2760</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1153.5</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1392</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1567.5</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="27">
+        <f>SUM(B25:B26)</f>
+        <v>406.5</v>
+      </c>
+      <c r="C27" s="27">
+        <f t="shared" ref="C27:T27" si="5">SUM(C25:C26)</f>
+        <v>5360.25</v>
+      </c>
+      <c r="D27" s="27">
+        <f t="shared" si="5"/>
+        <v>4860</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="5"/>
+        <v>2728.5</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="5"/>
+        <v>3494.5</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="5"/>
+        <v>5647.5</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="5"/>
+        <v>8965.5</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="5"/>
+        <v>7978.5</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="5"/>
+        <v>8583</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="5"/>
+        <v>6993</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="5"/>
+        <v>8826</v>
+      </c>
+      <c r="M27" s="27">
+        <f t="shared" si="5"/>
+        <v>9825</v>
+      </c>
+      <c r="N27" s="27">
+        <f t="shared" si="5"/>
+        <v>406.5</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" si="5"/>
+        <v>5360.25</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="5"/>
+        <v>4860</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" si="5"/>
+        <v>2728.5</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="5"/>
+        <v>3494.5</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="5"/>
+        <v>5647.5</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" si="5"/>
+        <v>8965.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>38807</v>
+      </c>
+      <c r="C29" s="4">
+        <v>36191.25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>37725</v>
+      </c>
+      <c r="E29" s="4">
+        <v>32729.25</v>
+      </c>
+      <c r="F29" s="4">
+        <v>33647.25</v>
+      </c>
+      <c r="G29" s="4">
+        <v>57430.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>57603</v>
+      </c>
+      <c r="I29" s="4">
+        <v>61940.25</v>
+      </c>
+      <c r="J29" s="4">
+        <v>49245.75</v>
+      </c>
+      <c r="K29" s="4">
+        <v>56768.25</v>
+      </c>
+      <c r="L29" s="4">
+        <v>53391</v>
+      </c>
+      <c r="M29" s="5">
+        <v>41883</v>
+      </c>
+      <c r="N29" s="4">
+        <v>38807</v>
+      </c>
+      <c r="O29" s="4">
+        <v>36191.25</v>
+      </c>
+      <c r="P29" s="4">
+        <v>37725</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>32729.25</v>
+      </c>
+      <c r="R29" s="4">
+        <v>33647.25</v>
+      </c>
+      <c r="S29" s="4">
+        <v>57430.5</v>
+      </c>
+      <c r="T29" s="4">
+        <v>57603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>62160</v>
+      </c>
+      <c r="C30" s="4">
+        <v>51659.530011587485</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44160</v>
+      </c>
+      <c r="E30" s="4">
+        <v>47640</v>
+      </c>
+      <c r="F30" s="4">
+        <v>49175.999999999985</v>
+      </c>
+      <c r="G30" s="4">
+        <v>68206.569506830754</v>
+      </c>
+      <c r="H30" s="4">
+        <v>66654.000000000015</v>
+      </c>
+      <c r="I30" s="4">
+        <v>71148</v>
+      </c>
+      <c r="J30" s="4">
+        <v>66653.999999999985</v>
+      </c>
+      <c r="K30" s="4">
+        <v>63480</v>
+      </c>
+      <c r="L30" s="4">
+        <v>61110</v>
+      </c>
+      <c r="M30" s="5">
+        <v>54239.999999999993</v>
+      </c>
+      <c r="N30" s="4">
+        <v>62160</v>
+      </c>
+      <c r="O30" s="4">
+        <v>51659.530011587485</v>
+      </c>
+      <c r="P30" s="4">
+        <v>44160</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>47640</v>
+      </c>
+      <c r="R30" s="4">
+        <v>49175.999999999985</v>
+      </c>
+      <c r="S30" s="4">
+        <v>68206.569506830754</v>
+      </c>
+      <c r="T30" s="4">
+        <v>66654.000000000015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB557-971D-4C9C-8C0C-E39F10DAB084}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092E153-8D0D-4645-B4CE-B4FD8CEEE478}">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -5337,31 +7316,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5369,7 +7348,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5377,7 +7356,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5385,7 +7364,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5393,7 +7372,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5401,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5409,7 +7388,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5417,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5425,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5433,7 +7412,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5441,7 +7420,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5449,7 +7428,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5457,7 +7436,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5465,7 +7444,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5473,7 +7452,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5481,7 +7460,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5489,7 +7468,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5497,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5505,7 +7484,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5513,7 +7492,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5521,7 +7500,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5534,12 +7513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63CFBC-1988-4619-A933-41EFE3EDA9DF}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6916,12 +8895,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3780CB-4062-4776-9DAF-C34966EEDBD2}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8703D7-73DA-4721-884C-70913B8BBAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62501D2E-2B74-4A3F-B48D-B3A18FC3A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404ABB2-263C-4390-AD24-BE522369CE65}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -11356,8 +11356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB557-971D-4C9C-8C0C-E39F10DAB084}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62501D2E-2B74-4A3F-B48D-B3A18FC3A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E648C5-CE6F-44E1-A4F5-9B9DF58CF3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="4" r:id="rId2"/>
     <sheet name="Resource" sheetId="3" r:id="rId3"/>
-    <sheet name="CostDep" sheetId="9" r:id="rId4"/>
-    <sheet name="Department" sheetId="10" r:id="rId5"/>
-    <sheet name="Status" sheetId="8" r:id="rId6"/>
-    <sheet name="Bug" sheetId="5" r:id="rId7"/>
-    <sheet name="Execution" sheetId="6" r:id="rId8"/>
+    <sheet name="Bug" sheetId="5" r:id="rId4"/>
+    <sheet name="Execution" sheetId="6" r:id="rId5"/>
+    <sheet name="CostDep" sheetId="9" r:id="rId6"/>
+    <sheet name="Department" sheetId="10" r:id="rId7"/>
+    <sheet name="Status" sheetId="8" r:id="rId8"/>
     <sheet name="Automation Percentage" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cost!$A$1:$AF$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Department!$A$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Department!$A$1:$B$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Efforts!$A$1:$AF$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resource!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Status!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Status!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -957,7 +957,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,13 +3059,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="32" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.88671875" style="15"/>
   </cols>
@@ -5311,11 +5311,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" ref="N27:Y27" si="0">N9+N13+N6+N4+N21+N17+N18+N16</f>
+        <f>N9+N13+N6+N4+N21+N17+N18+N16</f>
         <v>15403.5</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N27:Y27" si="0">O9+O13+O6+O4+O21+O17+O18+O16</f>
         <v>9792</v>
       </c>
       <c r="P27" s="4">
@@ -6026,8 +6026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF6A449-6462-40EC-A3DA-01359172B0CA}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7604,7 +7604,9 @@
       <c r="X16" s="10">
         <v>0.2945398254995778</v>
       </c>
-      <c r="Y16" s="11"/>
+      <c r="Y16" s="10">
+        <v>0</v>
+      </c>
       <c r="Z16" s="21">
         <v>0</v>
       </c>
@@ -7692,7 +7694,9 @@
       <c r="X17" s="10">
         <v>0.2524627075710667</v>
       </c>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="10">
+        <v>0</v>
+      </c>
       <c r="Z17" s="21">
         <v>0</v>
       </c>
@@ -7950,7 +7954,9 @@
       <c r="X20" s="10">
         <v>0</v>
       </c>
-      <c r="Y20" s="11"/>
+      <c r="Y20" s="10">
+        <v>0</v>
+      </c>
       <c r="Z20" s="21">
         <v>0</v>
       </c>
@@ -8489,6 +8495,4354 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63CFBC-1988-4619-A933-41EFE3EDA9DF}">
+  <dimension ref="A1:AF22"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AC3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>36</v>
+      </c>
+      <c r="O2" s="25">
+        <v>47</v>
+      </c>
+      <c r="P2" s="25">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>52</v>
+      </c>
+      <c r="R2" s="25">
+        <v>41</v>
+      </c>
+      <c r="S2" s="25">
+        <v>65</v>
+      </c>
+      <c r="T2" s="25">
+        <v>112</v>
+      </c>
+      <c r="U2" s="25">
+        <v>197</v>
+      </c>
+      <c r="V2" s="25">
+        <v>56</v>
+      </c>
+      <c r="W2" s="25">
+        <v>35</v>
+      </c>
+      <c r="X2" s="25">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <v>2</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>1</v>
+      </c>
+      <c r="R3" s="25">
+        <v>3</v>
+      </c>
+      <c r="S3" s="25">
+        <v>4</v>
+      </c>
+      <c r="T3" s="25">
+        <v>2</v>
+      </c>
+      <c r="U3" s="25">
+        <v>4</v>
+      </c>
+      <c r="V3" s="25">
+        <v>5</v>
+      </c>
+      <c r="W3" s="25">
+        <v>3</v>
+      </c>
+      <c r="X3" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>1</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>3</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <v>0</v>
+      </c>
+      <c r="V4" s="25">
+        <v>1</v>
+      </c>
+      <c r="W4" s="25">
+        <v>2</v>
+      </c>
+      <c r="X4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>6</v>
+      </c>
+      <c r="P5" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>7</v>
+      </c>
+      <c r="R5" s="25">
+        <v>7</v>
+      </c>
+      <c r="S5" s="25">
+        <v>10</v>
+      </c>
+      <c r="T5" s="25">
+        <v>8</v>
+      </c>
+      <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="25">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>4</v>
+      </c>
+      <c r="O6" s="25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25">
+        <v>1</v>
+      </c>
+      <c r="U6" s="25">
+        <v>1</v>
+      </c>
+      <c r="V6" s="25">
+        <v>0</v>
+      </c>
+      <c r="W6" s="25">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3</v>
+      </c>
+      <c r="O7" s="25">
+        <v>24</v>
+      </c>
+      <c r="P7" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>10</v>
+      </c>
+      <c r="R7" s="25">
+        <v>9</v>
+      </c>
+      <c r="S7" s="25">
+        <v>4</v>
+      </c>
+      <c r="T7" s="25">
+        <v>5</v>
+      </c>
+      <c r="U7" s="25">
+        <v>13</v>
+      </c>
+      <c r="V7" s="25">
+        <v>12</v>
+      </c>
+      <c r="W7" s="25">
+        <v>8</v>
+      </c>
+      <c r="X7" s="25">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>10</v>
+      </c>
+      <c r="O8" s="25">
+        <v>3</v>
+      </c>
+      <c r="P8" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>14</v>
+      </c>
+      <c r="R8" s="25">
+        <v>13</v>
+      </c>
+      <c r="S8" s="25">
+        <v>13</v>
+      </c>
+      <c r="T8" s="25">
+        <v>20</v>
+      </c>
+      <c r="U8" s="25">
+        <v>22</v>
+      </c>
+      <c r="V8" s="25">
+        <v>11</v>
+      </c>
+      <c r="W8" s="25">
+        <v>4</v>
+      </c>
+      <c r="X8" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>2</v>
+      </c>
+      <c r="O9" s="25">
+        <v>3</v>
+      </c>
+      <c r="P9" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>1</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25">
+        <v>0</v>
+      </c>
+      <c r="W9" s="25">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="U10" s="25">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25">
+        <v>0</v>
+      </c>
+      <c r="W10" s="25">
+        <v>0</v>
+      </c>
+      <c r="X10" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>2</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>1</v>
+      </c>
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="25">
+        <v>2</v>
+      </c>
+      <c r="X12" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>14</v>
+      </c>
+      <c r="O13" s="25">
+        <v>5</v>
+      </c>
+      <c r="P13" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>16</v>
+      </c>
+      <c r="R13" s="25">
+        <v>7</v>
+      </c>
+      <c r="S13" s="25">
+        <v>4</v>
+      </c>
+      <c r="T13" s="25">
+        <v>41</v>
+      </c>
+      <c r="U13" s="25">
+        <v>28</v>
+      </c>
+      <c r="V13" s="25">
+        <v>21</v>
+      </c>
+      <c r="W13" s="25">
+        <v>17</v>
+      </c>
+      <c r="X13" s="25">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <v>3</v>
+      </c>
+      <c r="P14" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="25">
+        <v>2</v>
+      </c>
+      <c r="T14" s="25">
+        <v>24</v>
+      </c>
+      <c r="U14" s="25">
+        <v>16</v>
+      </c>
+      <c r="V14" s="25">
+        <v>3</v>
+      </c>
+      <c r="W14" s="25">
+        <v>1</v>
+      </c>
+      <c r="X14" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="25">
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>20</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>1</v>
+      </c>
+      <c r="V17" s="25">
+        <v>1</v>
+      </c>
+      <c r="W17" s="25">
+        <v>0</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>8</v>
+      </c>
+      <c r="T18" s="25">
+        <v>11</v>
+      </c>
+      <c r="U18" s="25">
+        <v>112</v>
+      </c>
+      <c r="V18" s="25">
+        <v>2</v>
+      </c>
+      <c r="W18" s="25">
+        <v>0</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="25">
+        <v>0</v>
+      </c>
+      <c r="W19" s="25">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="25">
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="25">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0</v>
+      </c>
+      <c r="U21" s="25">
+        <v>0</v>
+      </c>
+      <c r="V21" s="25">
+        <v>0</v>
+      </c>
+      <c r="W21" s="25">
+        <v>0</v>
+      </c>
+      <c r="X21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25">
+        <v>0</v>
+      </c>
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="25">
+        <v>0</v>
+      </c>
+      <c r="W22" s="25">
+        <v>0</v>
+      </c>
+      <c r="X22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3780CB-4062-4776-9DAF-C34966EEDBD2}">
+  <dimension ref="A1:AF22"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>3333</v>
+      </c>
+      <c r="O2" s="25">
+        <v>2917</v>
+      </c>
+      <c r="P2" s="25">
+        <v>2451</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>2731</v>
+      </c>
+      <c r="R2" s="25">
+        <v>3199</v>
+      </c>
+      <c r="S2" s="25">
+        <v>3229</v>
+      </c>
+      <c r="T2" s="25">
+        <v>2866</v>
+      </c>
+      <c r="U2" s="25">
+        <v>3150</v>
+      </c>
+      <c r="V2" s="25">
+        <v>3843</v>
+      </c>
+      <c r="W2" s="25">
+        <v>3624</v>
+      </c>
+      <c r="X2" s="25">
+        <v>3430</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>2693</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <v>195</v>
+      </c>
+      <c r="O3" s="25">
+        <v>195</v>
+      </c>
+      <c r="P3" s="25">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>195</v>
+      </c>
+      <c r="R3" s="25">
+        <v>325</v>
+      </c>
+      <c r="S3" s="25">
+        <v>260</v>
+      </c>
+      <c r="T3" s="25">
+        <v>260</v>
+      </c>
+      <c r="U3" s="25">
+        <v>325</v>
+      </c>
+      <c r="V3" s="25">
+        <v>325</v>
+      </c>
+      <c r="W3" s="25">
+        <v>325</v>
+      </c>
+      <c r="X3" s="25">
+        <v>260</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>290</v>
+      </c>
+      <c r="O4" s="25">
+        <v>260</v>
+      </c>
+      <c r="P4" s="25">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>300</v>
+      </c>
+      <c r="R4" s="25">
+        <v>310</v>
+      </c>
+      <c r="S4" s="25">
+        <v>280</v>
+      </c>
+      <c r="T4" s="25">
+        <v>280</v>
+      </c>
+      <c r="U4" s="25">
+        <v>150</v>
+      </c>
+      <c r="V4" s="25">
+        <v>210</v>
+      </c>
+      <c r="W4" s="25">
+        <v>200</v>
+      </c>
+      <c r="X4" s="25">
+        <v>230</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>190</v>
+      </c>
+      <c r="O5" s="25">
+        <v>128</v>
+      </c>
+      <c r="P5" s="25">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>101</v>
+      </c>
+      <c r="R5" s="25">
+        <v>158</v>
+      </c>
+      <c r="S5" s="25">
+        <v>81</v>
+      </c>
+      <c r="T5" s="25">
+        <v>74</v>
+      </c>
+      <c r="U5" s="25">
+        <v>150</v>
+      </c>
+      <c r="V5" s="25">
+        <v>390</v>
+      </c>
+      <c r="W5" s="25">
+        <v>123</v>
+      </c>
+      <c r="X5" s="25">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>48</v>
+      </c>
+      <c r="O6" s="25">
+        <v>30</v>
+      </c>
+      <c r="P6" s="25">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>50</v>
+      </c>
+      <c r="R6" s="25">
+        <v>48</v>
+      </c>
+      <c r="S6" s="25">
+        <v>48</v>
+      </c>
+      <c r="T6" s="25">
+        <v>48</v>
+      </c>
+      <c r="U6" s="25">
+        <v>48</v>
+      </c>
+      <c r="V6" s="25">
+        <v>48</v>
+      </c>
+      <c r="W6" s="25">
+        <v>48</v>
+      </c>
+      <c r="X6" s="25">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>190</v>
+      </c>
+      <c r="O7" s="25">
+        <v>128</v>
+      </c>
+      <c r="P7" s="25">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>101</v>
+      </c>
+      <c r="R7" s="25">
+        <v>158</v>
+      </c>
+      <c r="S7" s="25">
+        <v>81</v>
+      </c>
+      <c r="T7" s="25">
+        <v>74</v>
+      </c>
+      <c r="U7" s="25">
+        <v>150</v>
+      </c>
+      <c r="V7" s="25">
+        <v>390</v>
+      </c>
+      <c r="W7" s="25">
+        <v>284</v>
+      </c>
+      <c r="X7" s="25">
+        <v>173</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>188</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>9</v>
+      </c>
+      <c r="O8" s="25">
+        <v>19</v>
+      </c>
+      <c r="P8" s="25">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>19</v>
+      </c>
+      <c r="R8" s="25">
+        <v>15</v>
+      </c>
+      <c r="S8" s="25">
+        <v>28</v>
+      </c>
+      <c r="T8" s="25">
+        <v>120</v>
+      </c>
+      <c r="U8" s="25">
+        <v>51</v>
+      </c>
+      <c r="V8" s="25">
+        <v>30</v>
+      </c>
+      <c r="W8" s="25">
+        <v>25</v>
+      </c>
+      <c r="X8" s="25">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>36</v>
+      </c>
+      <c r="O9" s="25">
+        <v>60</v>
+      </c>
+      <c r="P9" s="25">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>96</v>
+      </c>
+      <c r="R9" s="25">
+        <v>108</v>
+      </c>
+      <c r="S9" s="25">
+        <v>138</v>
+      </c>
+      <c r="T9" s="25">
+        <v>150</v>
+      </c>
+      <c r="U9" s="25">
+        <v>162</v>
+      </c>
+      <c r="V9" s="25">
+        <v>210</v>
+      </c>
+      <c r="W9" s="25">
+        <v>188</v>
+      </c>
+      <c r="X9" s="25">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>4</v>
+      </c>
+      <c r="R10" s="25">
+        <v>4</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="U10" s="25">
+        <v>21</v>
+      </c>
+      <c r="V10" s="25">
+        <v>10</v>
+      </c>
+      <c r="W10" s="25">
+        <v>9</v>
+      </c>
+      <c r="X10" s="25">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>2201</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1792</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1457</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>1410</v>
+      </c>
+      <c r="R12" s="25">
+        <v>1457</v>
+      </c>
+      <c r="S12" s="25">
+        <v>1410</v>
+      </c>
+      <c r="T12" s="25">
+        <v>1363</v>
+      </c>
+      <c r="U12" s="25">
+        <v>1240</v>
+      </c>
+      <c r="V12" s="25">
+        <v>1350</v>
+      </c>
+      <c r="W12" s="25">
+        <v>1395</v>
+      </c>
+      <c r="X12" s="25">
+        <v>1395</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>1350</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>174</v>
+      </c>
+      <c r="O13" s="25">
+        <v>260</v>
+      </c>
+      <c r="P13" s="25">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>450</v>
+      </c>
+      <c r="R13" s="25">
+        <v>580</v>
+      </c>
+      <c r="S13" s="25">
+        <v>285</v>
+      </c>
+      <c r="T13" s="25">
+        <v>200</v>
+      </c>
+      <c r="U13" s="25">
+        <v>560</v>
+      </c>
+      <c r="V13" s="25">
+        <v>469</v>
+      </c>
+      <c r="W13" s="25">
+        <v>832</v>
+      </c>
+      <c r="X13" s="25">
+        <v>648</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>490</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <v>45</v>
+      </c>
+      <c r="P14" s="25">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>5</v>
+      </c>
+      <c r="R14" s="25">
+        <v>36</v>
+      </c>
+      <c r="S14" s="25">
+        <v>49</v>
+      </c>
+      <c r="T14" s="25">
+        <v>52</v>
+      </c>
+      <c r="U14" s="25">
+        <v>31</v>
+      </c>
+      <c r="V14" s="25">
+        <v>69</v>
+      </c>
+      <c r="W14" s="25">
+        <v>93</v>
+      </c>
+      <c r="X14" s="25">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>13</v>
+      </c>
+      <c r="T16" s="25">
+        <v>18</v>
+      </c>
+      <c r="U16" s="25">
+        <v>20</v>
+      </c>
+      <c r="V16" s="25">
+        <v>13</v>
+      </c>
+      <c r="W16" s="25">
+        <v>13</v>
+      </c>
+      <c r="X16" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>48</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>25</v>
+      </c>
+      <c r="V17" s="25">
+        <v>25</v>
+      </c>
+      <c r="W17" s="25">
+        <v>3</v>
+      </c>
+      <c r="X17" s="25">
+        <v>143</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>508</v>
+      </c>
+      <c r="T18" s="25">
+        <v>227</v>
+      </c>
+      <c r="U18" s="25">
+        <v>217</v>
+      </c>
+      <c r="V18" s="25">
+        <v>298</v>
+      </c>
+      <c r="W18" s="25">
+        <v>0</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="25">
+        <v>6</v>
+      </c>
+      <c r="W19" s="25">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="25">
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="25">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0</v>
+      </c>
+      <c r="U21" s="25">
+        <v>0</v>
+      </c>
+      <c r="V21" s="25">
+        <v>0</v>
+      </c>
+      <c r="W21" s="25">
+        <v>86</v>
+      </c>
+      <c r="X21" s="25">
+        <v>276</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25">
+        <v>0</v>
+      </c>
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="25">
+        <v>0</v>
+      </c>
+      <c r="W22" s="25">
+        <v>0</v>
+      </c>
+      <c r="X22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AA6229-5E79-4F3C-997C-595DE0D0914A}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
@@ -11352,12 +15706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB557-971D-4C9C-8C0C-E39F10DAB084}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11691,12 +16045,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092E153-8D0D-4645-B4CE-B4FD8CEEE478}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11906,4360 +16260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63CFBC-1988-4619-A933-41EFE3EDA9DF}">
-  <dimension ref="A1:AF22"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <v>0</v>
-      </c>
-      <c r="J2" s="25">
-        <v>0</v>
-      </c>
-      <c r="K2" s="25">
-        <v>0</v>
-      </c>
-      <c r="L2" s="25">
-        <v>0</v>
-      </c>
-      <c r="M2" s="25">
-        <v>0</v>
-      </c>
-      <c r="N2" s="25">
-        <v>36</v>
-      </c>
-      <c r="O2" s="25">
-        <v>47</v>
-      </c>
-      <c r="P2" s="25">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>52</v>
-      </c>
-      <c r="R2" s="25">
-        <v>41</v>
-      </c>
-      <c r="S2" s="25">
-        <v>65</v>
-      </c>
-      <c r="T2" s="25">
-        <v>112</v>
-      </c>
-      <c r="U2" s="25">
-        <v>197</v>
-      </c>
-      <c r="V2" s="25">
-        <v>56</v>
-      </c>
-      <c r="W2" s="25">
-        <v>35</v>
-      </c>
-      <c r="X2" s="25">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="25">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-      <c r="L3" s="25">
-        <v>0</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0</v>
-      </c>
-      <c r="N3" s="25">
-        <v>2</v>
-      </c>
-      <c r="O3" s="25">
-        <v>1</v>
-      </c>
-      <c r="P3" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>1</v>
-      </c>
-      <c r="R3" s="25">
-        <v>3</v>
-      </c>
-      <c r="S3" s="25">
-        <v>4</v>
-      </c>
-      <c r="T3" s="25">
-        <v>2</v>
-      </c>
-      <c r="U3" s="25">
-        <v>4</v>
-      </c>
-      <c r="V3" s="25">
-        <v>5</v>
-      </c>
-      <c r="W3" s="25">
-        <v>3</v>
-      </c>
-      <c r="X3" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25">
-        <v>1</v>
-      </c>
-      <c r="O4" s="25">
-        <v>1</v>
-      </c>
-      <c r="P4" s="25">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>3</v>
-      </c>
-      <c r="R4" s="25">
-        <v>2</v>
-      </c>
-      <c r="S4" s="25">
-        <v>0</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
-      <c r="U4" s="25">
-        <v>0</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="25">
-        <v>2</v>
-      </c>
-      <c r="X4" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-      <c r="M5" s="25">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
-      <c r="O5" s="25">
-        <v>6</v>
-      </c>
-      <c r="P5" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>7</v>
-      </c>
-      <c r="R5" s="25">
-        <v>7</v>
-      </c>
-      <c r="S5" s="25">
-        <v>10</v>
-      </c>
-      <c r="T5" s="25">
-        <v>8</v>
-      </c>
-      <c r="U5" s="25">
-        <v>0</v>
-      </c>
-      <c r="V5" s="25">
-        <v>0</v>
-      </c>
-      <c r="W5" s="25">
-        <v>0</v>
-      </c>
-      <c r="X5" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="25">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
-        <v>4</v>
-      </c>
-      <c r="O6" s="25">
-        <v>1</v>
-      </c>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>0</v>
-      </c>
-      <c r="R6" s="25">
-        <v>0</v>
-      </c>
-      <c r="S6" s="25">
-        <v>0</v>
-      </c>
-      <c r="T6" s="25">
-        <v>1</v>
-      </c>
-      <c r="U6" s="25">
-        <v>1</v>
-      </c>
-      <c r="V6" s="25">
-        <v>0</v>
-      </c>
-      <c r="W6" s="25">
-        <v>0</v>
-      </c>
-      <c r="X6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <v>3</v>
-      </c>
-      <c r="O7" s="25">
-        <v>24</v>
-      </c>
-      <c r="P7" s="25">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>10</v>
-      </c>
-      <c r="R7" s="25">
-        <v>9</v>
-      </c>
-      <c r="S7" s="25">
-        <v>4</v>
-      </c>
-      <c r="T7" s="25">
-        <v>5</v>
-      </c>
-      <c r="U7" s="25">
-        <v>13</v>
-      </c>
-      <c r="V7" s="25">
-        <v>12</v>
-      </c>
-      <c r="W7" s="25">
-        <v>8</v>
-      </c>
-      <c r="X7" s="25">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="25">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <v>10</v>
-      </c>
-      <c r="O8" s="25">
-        <v>3</v>
-      </c>
-      <c r="P8" s="25">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>14</v>
-      </c>
-      <c r="R8" s="25">
-        <v>13</v>
-      </c>
-      <c r="S8" s="25">
-        <v>13</v>
-      </c>
-      <c r="T8" s="25">
-        <v>20</v>
-      </c>
-      <c r="U8" s="25">
-        <v>22</v>
-      </c>
-      <c r="V8" s="25">
-        <v>11</v>
-      </c>
-      <c r="W8" s="25">
-        <v>4</v>
-      </c>
-      <c r="X8" s="25">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
-        <v>2</v>
-      </c>
-      <c r="O9" s="25">
-        <v>3</v>
-      </c>
-      <c r="P9" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>1</v>
-      </c>
-      <c r="R9" s="25">
-        <v>0</v>
-      </c>
-      <c r="S9" s="25">
-        <v>0</v>
-      </c>
-      <c r="T9" s="25">
-        <v>0</v>
-      </c>
-      <c r="U9" s="25">
-        <v>0</v>
-      </c>
-      <c r="V9" s="25">
-        <v>0</v>
-      </c>
-      <c r="W9" s="25">
-        <v>0</v>
-      </c>
-      <c r="X9" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="25">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0</v>
-      </c>
-      <c r="S10" s="25">
-        <v>0</v>
-      </c>
-      <c r="T10" s="25">
-        <v>0</v>
-      </c>
-      <c r="U10" s="25">
-        <v>0</v>
-      </c>
-      <c r="V10" s="25">
-        <v>0</v>
-      </c>
-      <c r="W10" s="25">
-        <v>0</v>
-      </c>
-      <c r="X10" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="25">
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <v>0</v>
-      </c>
-      <c r="U11" s="25">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25">
-        <v>0</v>
-      </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
-      <c r="X11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0</v>
-      </c>
-      <c r="O12" s="25">
-        <v>2</v>
-      </c>
-      <c r="P12" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>0</v>
-      </c>
-      <c r="R12" s="25">
-        <v>0</v>
-      </c>
-      <c r="S12" s="25">
-        <v>0</v>
-      </c>
-      <c r="T12" s="25">
-        <v>0</v>
-      </c>
-      <c r="U12" s="25">
-        <v>1</v>
-      </c>
-      <c r="V12" s="25">
-        <v>0</v>
-      </c>
-      <c r="W12" s="25">
-        <v>2</v>
-      </c>
-      <c r="X12" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
-        <v>14</v>
-      </c>
-      <c r="O13" s="25">
-        <v>5</v>
-      </c>
-      <c r="P13" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>16</v>
-      </c>
-      <c r="R13" s="25">
-        <v>7</v>
-      </c>
-      <c r="S13" s="25">
-        <v>4</v>
-      </c>
-      <c r="T13" s="25">
-        <v>41</v>
-      </c>
-      <c r="U13" s="25">
-        <v>28</v>
-      </c>
-      <c r="V13" s="25">
-        <v>21</v>
-      </c>
-      <c r="W13" s="25">
-        <v>17</v>
-      </c>
-      <c r="X13" s="25">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>3</v>
-      </c>
-      <c r="P14" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>0</v>
-      </c>
-      <c r="R14" s="25">
-        <v>0</v>
-      </c>
-      <c r="S14" s="25">
-        <v>2</v>
-      </c>
-      <c r="T14" s="25">
-        <v>24</v>
-      </c>
-      <c r="U14" s="25">
-        <v>16</v>
-      </c>
-      <c r="V14" s="25">
-        <v>3</v>
-      </c>
-      <c r="W14" s="25">
-        <v>1</v>
-      </c>
-      <c r="X14" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0</v>
-      </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25">
-        <v>0</v>
-      </c>
-      <c r="S15" s="25">
-        <v>0</v>
-      </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
-      <c r="U15" s="25">
-        <v>0</v>
-      </c>
-      <c r="V15" s="25">
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
-        <v>0</v>
-      </c>
-      <c r="X15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25">
-        <v>0</v>
-      </c>
-      <c r="L16" s="25">
-        <v>0</v>
-      </c>
-      <c r="M16" s="25">
-        <v>0</v>
-      </c>
-      <c r="N16" s="25">
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25">
-        <v>0</v>
-      </c>
-      <c r="S16" s="25">
-        <v>0</v>
-      </c>
-      <c r="T16" s="25">
-        <v>0</v>
-      </c>
-      <c r="U16" s="25">
-        <v>0</v>
-      </c>
-      <c r="V16" s="25">
-        <v>0</v>
-      </c>
-      <c r="W16" s="25">
-        <v>0</v>
-      </c>
-      <c r="X16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="25">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>0</v>
-      </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <v>20</v>
-      </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25">
-        <v>1</v>
-      </c>
-      <c r="V17" s="25">
-        <v>1</v>
-      </c>
-      <c r="W17" s="25">
-        <v>0</v>
-      </c>
-      <c r="X17" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="25">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
-        <v>0</v>
-      </c>
-      <c r="L18" s="25">
-        <v>0</v>
-      </c>
-      <c r="M18" s="25">
-        <v>0</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0</v>
-      </c>
-      <c r="R18" s="25">
-        <v>0</v>
-      </c>
-      <c r="S18" s="25">
-        <v>8</v>
-      </c>
-      <c r="T18" s="25">
-        <v>11</v>
-      </c>
-      <c r="U18" s="25">
-        <v>112</v>
-      </c>
-      <c r="V18" s="25">
-        <v>2</v>
-      </c>
-      <c r="W18" s="25">
-        <v>0</v>
-      </c>
-      <c r="X18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25">
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <v>0</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0</v>
-      </c>
-      <c r="N19" s="25">
-        <v>0</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <v>0</v>
-      </c>
-      <c r="T19" s="25">
-        <v>0</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="25">
-        <v>0</v>
-      </c>
-      <c r="W19" s="25">
-        <v>0</v>
-      </c>
-      <c r="X19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
-        <v>0</v>
-      </c>
-      <c r="K20" s="25">
-        <v>0</v>
-      </c>
-      <c r="L20" s="25">
-        <v>0</v>
-      </c>
-      <c r="M20" s="25">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0</v>
-      </c>
-      <c r="S20" s="25">
-        <v>0</v>
-      </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
-      <c r="U20" s="25">
-        <v>0</v>
-      </c>
-      <c r="V20" s="25">
-        <v>0</v>
-      </c>
-      <c r="W20" s="25">
-        <v>0</v>
-      </c>
-      <c r="X20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
-        <v>0</v>
-      </c>
-      <c r="K21" s="25">
-        <v>0</v>
-      </c>
-      <c r="L21" s="25">
-        <v>0</v>
-      </c>
-      <c r="M21" s="25">
-        <v>0</v>
-      </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25">
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25">
-        <v>0</v>
-      </c>
-      <c r="S21" s="25">
-        <v>0</v>
-      </c>
-      <c r="T21" s="25">
-        <v>0</v>
-      </c>
-      <c r="U21" s="25">
-        <v>0</v>
-      </c>
-      <c r="V21" s="25">
-        <v>0</v>
-      </c>
-      <c r="W21" s="25">
-        <v>0</v>
-      </c>
-      <c r="X21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-      <c r="K22" s="25">
-        <v>0</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="25">
-        <v>0</v>
-      </c>
-      <c r="T22" s="25">
-        <v>0</v>
-      </c>
-      <c r="U22" s="25">
-        <v>0</v>
-      </c>
-      <c r="V22" s="25">
-        <v>0</v>
-      </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
-      <c r="X22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3780CB-4062-4776-9DAF-C34966EEDBD2}">
-  <dimension ref="A1:AF22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <v>0</v>
-      </c>
-      <c r="J2" s="25">
-        <v>0</v>
-      </c>
-      <c r="K2" s="25">
-        <v>0</v>
-      </c>
-      <c r="L2" s="25">
-        <v>0</v>
-      </c>
-      <c r="M2" s="25">
-        <v>0</v>
-      </c>
-      <c r="N2" s="25">
-        <v>3333</v>
-      </c>
-      <c r="O2" s="25">
-        <v>2917</v>
-      </c>
-      <c r="P2" s="25">
-        <v>2451</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>2731</v>
-      </c>
-      <c r="R2" s="25">
-        <v>3199</v>
-      </c>
-      <c r="S2" s="25">
-        <v>3229</v>
-      </c>
-      <c r="T2" s="25">
-        <v>2866</v>
-      </c>
-      <c r="U2" s="25">
-        <v>3150</v>
-      </c>
-      <c r="V2" s="25">
-        <v>3843</v>
-      </c>
-      <c r="W2" s="25">
-        <v>3624</v>
-      </c>
-      <c r="X2" s="25">
-        <v>3430</v>
-      </c>
-      <c r="Y2" s="25">
-        <v>2693</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-      <c r="L3" s="25">
-        <v>0</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0</v>
-      </c>
-      <c r="N3" s="25">
-        <v>195</v>
-      </c>
-      <c r="O3" s="25">
-        <v>195</v>
-      </c>
-      <c r="P3" s="25">
-        <v>195</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>195</v>
-      </c>
-      <c r="R3" s="25">
-        <v>325</v>
-      </c>
-      <c r="S3" s="25">
-        <v>260</v>
-      </c>
-      <c r="T3" s="25">
-        <v>260</v>
-      </c>
-      <c r="U3" s="25">
-        <v>325</v>
-      </c>
-      <c r="V3" s="25">
-        <v>325</v>
-      </c>
-      <c r="W3" s="25">
-        <v>325</v>
-      </c>
-      <c r="X3" s="25">
-        <v>260</v>
-      </c>
-      <c r="Y3" s="25">
-        <v>195</v>
-      </c>
-      <c r="Z3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25">
-        <v>290</v>
-      </c>
-      <c r="O4" s="25">
-        <v>260</v>
-      </c>
-      <c r="P4" s="25">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>300</v>
-      </c>
-      <c r="R4" s="25">
-        <v>310</v>
-      </c>
-      <c r="S4" s="25">
-        <v>280</v>
-      </c>
-      <c r="T4" s="25">
-        <v>280</v>
-      </c>
-      <c r="U4" s="25">
-        <v>150</v>
-      </c>
-      <c r="V4" s="25">
-        <v>210</v>
-      </c>
-      <c r="W4" s="25">
-        <v>200</v>
-      </c>
-      <c r="X4" s="25">
-        <v>230</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>200</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-      <c r="M5" s="25">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <v>190</v>
-      </c>
-      <c r="O5" s="25">
-        <v>128</v>
-      </c>
-      <c r="P5" s="25">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>101</v>
-      </c>
-      <c r="R5" s="25">
-        <v>158</v>
-      </c>
-      <c r="S5" s="25">
-        <v>81</v>
-      </c>
-      <c r="T5" s="25">
-        <v>74</v>
-      </c>
-      <c r="U5" s="25">
-        <v>150</v>
-      </c>
-      <c r="V5" s="25">
-        <v>390</v>
-      </c>
-      <c r="W5" s="25">
-        <v>123</v>
-      </c>
-      <c r="X5" s="25">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="25">
-        <v>110</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
-        <v>48</v>
-      </c>
-      <c r="O6" s="25">
-        <v>30</v>
-      </c>
-      <c r="P6" s="25">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>50</v>
-      </c>
-      <c r="R6" s="25">
-        <v>48</v>
-      </c>
-      <c r="S6" s="25">
-        <v>48</v>
-      </c>
-      <c r="T6" s="25">
-        <v>48</v>
-      </c>
-      <c r="U6" s="25">
-        <v>48</v>
-      </c>
-      <c r="V6" s="25">
-        <v>48</v>
-      </c>
-      <c r="W6" s="25">
-        <v>48</v>
-      </c>
-      <c r="X6" s="25">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="25">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <v>190</v>
-      </c>
-      <c r="O7" s="25">
-        <v>128</v>
-      </c>
-      <c r="P7" s="25">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>101</v>
-      </c>
-      <c r="R7" s="25">
-        <v>158</v>
-      </c>
-      <c r="S7" s="25">
-        <v>81</v>
-      </c>
-      <c r="T7" s="25">
-        <v>74</v>
-      </c>
-      <c r="U7" s="25">
-        <v>150</v>
-      </c>
-      <c r="V7" s="25">
-        <v>390</v>
-      </c>
-      <c r="W7" s="25">
-        <v>284</v>
-      </c>
-      <c r="X7" s="25">
-        <v>173</v>
-      </c>
-      <c r="Y7" s="25">
-        <v>188</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <v>9</v>
-      </c>
-      <c r="O8" s="25">
-        <v>19</v>
-      </c>
-      <c r="P8" s="25">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>19</v>
-      </c>
-      <c r="R8" s="25">
-        <v>15</v>
-      </c>
-      <c r="S8" s="25">
-        <v>28</v>
-      </c>
-      <c r="T8" s="25">
-        <v>120</v>
-      </c>
-      <c r="U8" s="25">
-        <v>51</v>
-      </c>
-      <c r="V8" s="25">
-        <v>30</v>
-      </c>
-      <c r="W8" s="25">
-        <v>25</v>
-      </c>
-      <c r="X8" s="25">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="25">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
-        <v>36</v>
-      </c>
-      <c r="O9" s="25">
-        <v>60</v>
-      </c>
-      <c r="P9" s="25">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>96</v>
-      </c>
-      <c r="R9" s="25">
-        <v>108</v>
-      </c>
-      <c r="S9" s="25">
-        <v>138</v>
-      </c>
-      <c r="T9" s="25">
-        <v>150</v>
-      </c>
-      <c r="U9" s="25">
-        <v>162</v>
-      </c>
-      <c r="V9" s="25">
-        <v>210</v>
-      </c>
-      <c r="W9" s="25">
-        <v>188</v>
-      </c>
-      <c r="X9" s="25">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="25">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>4</v>
-      </c>
-      <c r="R10" s="25">
-        <v>4</v>
-      </c>
-      <c r="S10" s="25">
-        <v>0</v>
-      </c>
-      <c r="T10" s="25">
-        <v>0</v>
-      </c>
-      <c r="U10" s="25">
-        <v>21</v>
-      </c>
-      <c r="V10" s="25">
-        <v>10</v>
-      </c>
-      <c r="W10" s="25">
-        <v>9</v>
-      </c>
-      <c r="X10" s="25">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="25">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="25">
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <v>0</v>
-      </c>
-      <c r="U11" s="25">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25">
-        <v>0</v>
-      </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
-      <c r="X11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
-        <v>2201</v>
-      </c>
-      <c r="O12" s="25">
-        <v>1792</v>
-      </c>
-      <c r="P12" s="25">
-        <v>1457</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>1410</v>
-      </c>
-      <c r="R12" s="25">
-        <v>1457</v>
-      </c>
-      <c r="S12" s="25">
-        <v>1410</v>
-      </c>
-      <c r="T12" s="25">
-        <v>1363</v>
-      </c>
-      <c r="U12" s="25">
-        <v>1240</v>
-      </c>
-      <c r="V12" s="25">
-        <v>1350</v>
-      </c>
-      <c r="W12" s="25">
-        <v>1395</v>
-      </c>
-      <c r="X12" s="25">
-        <v>1395</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>1350</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
-        <v>174</v>
-      </c>
-      <c r="O13" s="25">
-        <v>260</v>
-      </c>
-      <c r="P13" s="25">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>450</v>
-      </c>
-      <c r="R13" s="25">
-        <v>580</v>
-      </c>
-      <c r="S13" s="25">
-        <v>285</v>
-      </c>
-      <c r="T13" s="25">
-        <v>200</v>
-      </c>
-      <c r="U13" s="25">
-        <v>560</v>
-      </c>
-      <c r="V13" s="25">
-        <v>469</v>
-      </c>
-      <c r="W13" s="25">
-        <v>832</v>
-      </c>
-      <c r="X13" s="25">
-        <v>648</v>
-      </c>
-      <c r="Y13" s="25">
-        <v>490</v>
-      </c>
-      <c r="Z13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>45</v>
-      </c>
-      <c r="P14" s="25">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>5</v>
-      </c>
-      <c r="R14" s="25">
-        <v>36</v>
-      </c>
-      <c r="S14" s="25">
-        <v>49</v>
-      </c>
-      <c r="T14" s="25">
-        <v>52</v>
-      </c>
-      <c r="U14" s="25">
-        <v>31</v>
-      </c>
-      <c r="V14" s="25">
-        <v>69</v>
-      </c>
-      <c r="W14" s="25">
-        <v>93</v>
-      </c>
-      <c r="X14" s="25">
-        <v>80</v>
-      </c>
-      <c r="Y14" s="25">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0</v>
-      </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25">
-        <v>0</v>
-      </c>
-      <c r="S15" s="25">
-        <v>0</v>
-      </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
-      <c r="U15" s="25">
-        <v>0</v>
-      </c>
-      <c r="V15" s="25">
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
-        <v>0</v>
-      </c>
-      <c r="X15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25">
-        <v>0</v>
-      </c>
-      <c r="L16" s="25">
-        <v>0</v>
-      </c>
-      <c r="M16" s="25">
-        <v>0</v>
-      </c>
-      <c r="N16" s="25">
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25">
-        <v>0</v>
-      </c>
-      <c r="S16" s="25">
-        <v>13</v>
-      </c>
-      <c r="T16" s="25">
-        <v>18</v>
-      </c>
-      <c r="U16" s="25">
-        <v>20</v>
-      </c>
-      <c r="V16" s="25">
-        <v>13</v>
-      </c>
-      <c r="W16" s="25">
-        <v>13</v>
-      </c>
-      <c r="X16" s="25">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="25">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>0</v>
-      </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <v>48</v>
-      </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25">
-        <v>25</v>
-      </c>
-      <c r="V17" s="25">
-        <v>25</v>
-      </c>
-      <c r="W17" s="25">
-        <v>3</v>
-      </c>
-      <c r="X17" s="25">
-        <v>143</v>
-      </c>
-      <c r="Y17" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="25">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
-        <v>0</v>
-      </c>
-      <c r="L18" s="25">
-        <v>0</v>
-      </c>
-      <c r="M18" s="25">
-        <v>0</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0</v>
-      </c>
-      <c r="R18" s="25">
-        <v>0</v>
-      </c>
-      <c r="S18" s="25">
-        <v>508</v>
-      </c>
-      <c r="T18" s="25">
-        <v>227</v>
-      </c>
-      <c r="U18" s="25">
-        <v>217</v>
-      </c>
-      <c r="V18" s="25">
-        <v>298</v>
-      </c>
-      <c r="W18" s="25">
-        <v>0</v>
-      </c>
-      <c r="X18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25">
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <v>0</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0</v>
-      </c>
-      <c r="N19" s="25">
-        <v>0</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <v>0</v>
-      </c>
-      <c r="T19" s="25">
-        <v>0</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="25">
-        <v>6</v>
-      </c>
-      <c r="W19" s="25">
-        <v>0</v>
-      </c>
-      <c r="X19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
-        <v>0</v>
-      </c>
-      <c r="K20" s="25">
-        <v>0</v>
-      </c>
-      <c r="L20" s="25">
-        <v>0</v>
-      </c>
-      <c r="M20" s="25">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0</v>
-      </c>
-      <c r="S20" s="25">
-        <v>0</v>
-      </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
-      <c r="U20" s="25">
-        <v>0</v>
-      </c>
-      <c r="V20" s="25">
-        <v>0</v>
-      </c>
-      <c r="W20" s="25">
-        <v>0</v>
-      </c>
-      <c r="X20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
-        <v>0</v>
-      </c>
-      <c r="K21" s="25">
-        <v>0</v>
-      </c>
-      <c r="L21" s="25">
-        <v>0</v>
-      </c>
-      <c r="M21" s="25">
-        <v>0</v>
-      </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25">
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25">
-        <v>0</v>
-      </c>
-      <c r="S21" s="25">
-        <v>0</v>
-      </c>
-      <c r="T21" s="25">
-        <v>0</v>
-      </c>
-      <c r="U21" s="25">
-        <v>0</v>
-      </c>
-      <c r="V21" s="25">
-        <v>0</v>
-      </c>
-      <c r="W21" s="25">
-        <v>86</v>
-      </c>
-      <c r="X21" s="25">
-        <v>276</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-      <c r="K22" s="25">
-        <v>0</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="25">
-        <v>0</v>
-      </c>
-      <c r="T22" s="25">
-        <v>0</v>
-      </c>
-      <c r="U22" s="25">
-        <v>0</v>
-      </c>
-      <c r="V22" s="25">
-        <v>0</v>
-      </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
-      <c r="X22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5016A30-5BAE-49AD-AC7C-30674735E920}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E648C5-CE6F-44E1-A4F5-9B9DF58CF3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49561DE-68C4-4EF2-A19B-4C337E3062FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="101">
   <si>
     <t>Project</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -3059,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5C2A-DC0F-4E63-B0DF-E0CA59B2C830}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -5315,7 +5321,7 @@
         <v>15403.5</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="N27:Y27" si="0">O9+O13+O6+O4+O21+O17+O18+O16</f>
+        <f t="shared" ref="O27:Y27" si="0">O9+O13+O6+O4+O21+O17+O18+O16</f>
         <v>9792</v>
       </c>
       <c r="P27" s="4">
@@ -15711,7 +15717,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16262,198 +16268,330 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5016A30-5BAE-49AD-AC7C-30674735E920}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.6640625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
         <v>0.95589999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
         <v>0.97470000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="27">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27">
         <v>0.99650000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="27">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27">
         <v>0.96879999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="27">
+        <v>0</v>
+      </c>
+      <c r="C21" s="27">
         <v>0.47510000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="27">
+        <v>0</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D3B03-2AB4-4EF9-A70C-3F60C3E5789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF48D64-C389-479E-B854-0BDFDAC4B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="CostDep" sheetId="9" r:id="rId6"/>
     <sheet name="Department" sheetId="10" r:id="rId7"/>
     <sheet name="Status" sheetId="8" r:id="rId8"/>
-    <sheet name="ActiveHistory" sheetId="14" r:id="rId9"/>
-    <sheet name="Automation Percentage" sheetId="13" r:id="rId10"/>
-    <sheet name="Calculation" sheetId="15" r:id="rId11"/>
+    <sheet name="Technology" sheetId="16" r:id="rId9"/>
+    <sheet name="Metrics" sheetId="17" r:id="rId10"/>
+    <sheet name="ActiveHistory" sheetId="14" r:id="rId11"/>
+    <sheet name="Automation Percentage" sheetId="13" r:id="rId12"/>
+    <sheet name="Calculation" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cost!$A$1:$AR$23</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="285">
   <si>
     <t>Project</t>
   </si>
@@ -491,6 +493,423 @@
   </si>
   <si>
     <t>Blended Rate</t>
+  </si>
+  <si>
+    <t>​</t>
+  </si>
+  <si>
+    <t>QA Projects​</t>
+  </si>
+  <si>
+    <t>Functional​ (Sharepoint)​</t>
+  </si>
+  <si>
+    <t>Test Complete​</t>
+  </si>
+  <si>
+    <t>C# - Selenium​</t>
+  </si>
+  <si>
+    <t>Playwright​</t>
+  </si>
+  <si>
+    <t>Jmeter​</t>
+  </si>
+  <si>
+    <t>Beyond Compare​</t>
+  </si>
+  <si>
+    <t>Python selenium​</t>
+  </si>
+  <si>
+    <t>BrowserStack​</t>
+  </si>
+  <si>
+    <t>vEMS​</t>
+  </si>
+  <si>
+    <t>X​</t>
+  </si>
+  <si>
+    <t> X​</t>
+  </si>
+  <si>
+    <t>Workday​</t>
+  </si>
+  <si>
+    <t>SMA​</t>
+  </si>
+  <si>
+    <t>Treena​</t>
+  </si>
+  <si>
+    <t>X ​</t>
+  </si>
+  <si>
+    <t>Beqom​</t>
+  </si>
+  <si>
+    <t>OCP Tech Refresh​</t>
+  </si>
+  <si>
+    <t>     ​</t>
+  </si>
+  <si>
+    <t>FX Central​</t>
+  </si>
+  <si>
+    <t>SICAV​</t>
+  </si>
+  <si>
+    <t>ICS​</t>
+  </si>
+  <si>
+    <t>Corporate Actions​</t>
+  </si>
+  <si>
+    <t>Client Relations-QA​</t>
+  </si>
+  <si>
+    <t>Geneva​</t>
+  </si>
+  <si>
+    <t>Dr. Doc/Cornerstone​</t>
+  </si>
+  <si>
+    <t>WD AR/AP Dashboard ​</t>
+  </si>
+  <si>
+    <t>Oaktree Public Websites​</t>
+  </si>
+  <si>
+    <t>PIW​</t>
+  </si>
+  <si>
+    <t>Form PF​</t>
+  </si>
+  <si>
+    <t>Supported Platforms​</t>
+  </si>
+  <si>
+    <t>Test Complete​.</t>
+  </si>
+  <si>
+    <t>Selenium​.</t>
+  </si>
+  <si>
+    <t>Playwright​.</t>
+  </si>
+  <si>
+    <t>Jmeter​.</t>
+  </si>
+  <si>
+    <t>Beyond Compare​.</t>
+  </si>
+  <si>
+    <t>BrowserStack​.</t>
+  </si>
+  <si>
+    <t>Description​</t>
+  </si>
+  <si>
+    <t>Web Applications​</t>
+  </si>
+  <si>
+    <t>             X (Multiple Operating Systems)​</t>
+  </si>
+  <si>
+    <t>Mobile Devices​</t>
+  </si>
+  <si>
+    <t>             X (Multiple Android, IOS  Devices)​</t>
+  </si>
+  <si>
+    <t>API​</t>
+  </si>
+  <si>
+    <t>Desktop Applications​</t>
+  </si>
+  <si>
+    <t>Utility for comparing Files and Folders​</t>
+  </si>
+  <si>
+    <t>Performance(Load/Stress) Testing​</t>
+  </si>
+  <si>
+    <t>Supported Programming/Scripting Languages​</t>
+  </si>
+  <si>
+    <t>JavaScript​, Python, VBScript </t>
+  </si>
+  <si>
+    <t>C# , Python​</t>
+  </si>
+  <si>
+    <t>Javascript &amp; Typescript​</t>
+  </si>
+  <si>
+    <t>JavaScript​</t>
+  </si>
+  <si>
+    <t>             ​</t>
+  </si>
+  <si>
+    <t>Implemented Programming Language in Project​</t>
+  </si>
+  <si>
+    <t>VBScript​</t>
+  </si>
+  <si>
+    <t>C#, Python​</t>
+  </si>
+  <si>
+    <t>TypeScript​</t>
+  </si>
+  <si>
+    <t>Open Source/Licensed​</t>
+  </si>
+  <si>
+    <t>Licensed​</t>
+  </si>
+  <si>
+    <t>Open Source​</t>
+  </si>
+  <si>
+    <t> Open Source​</t>
+  </si>
+  <si>
+    <t>        Licensed​</t>
+  </si>
+  <si>
+    <t>  Licensed ​</t>
+  </si>
+  <si>
+    <t>Functional automation testing tool for Windows apps. Record, script, or create tests with keyword-driven operations.</t>
+  </si>
+  <si>
+    <t>Open-source framework for validating web apps across browsers and platforms.</t>
+  </si>
+  <si>
+    <t>JavaScript-based automation framework for web apps.</t>
+  </si>
+  <si>
+    <t>Load testing tool for analyzing web app performance.</t>
+  </si>
+  <si>
+    <t>Data comparison utility for files, folders, FTP&amp;SFTP directories.</t>
+  </si>
+  <si>
+    <t>Cloud-based tool for cross-browser testing of web and mobile apps.</t>
+  </si>
+  <si>
+    <t>Project​</t>
+  </si>
+  <si>
+    <t>Total Test Cases​</t>
+  </si>
+  <si>
+    <t>Manual​</t>
+  </si>
+  <si>
+    <t>Automated​</t>
+  </si>
+  <si>
+    <t>Not Ready for Automation Review​</t>
+  </si>
+  <si>
+    <t>Ready for Automation Review​</t>
+  </si>
+  <si>
+    <t>Total Bugs Identified​</t>
+  </si>
+  <si>
+    <t>Comments​</t>
+  </si>
+  <si>
+    <t>FXCentral​</t>
+  </si>
+  <si>
+    <t>68​</t>
+  </si>
+  <si>
+    <t>3​</t>
+  </si>
+  <si>
+    <t>65​</t>
+  </si>
+  <si>
+    <t>0​</t>
+  </si>
+  <si>
+    <t>3*​</t>
+  </si>
+  <si>
+    <t>107​</t>
+  </si>
+  <si>
+    <t>95.5%​</t>
+  </si>
+  <si>
+    <t>*Due to Tool limitations, unable to identify objects (grids, dynamic data)​</t>
+  </si>
+  <si>
+    <t>158​</t>
+  </si>
+  <si>
+    <t>4​</t>
+  </si>
+  <si>
+    <t>154​</t>
+  </si>
+  <si>
+    <t>4*​</t>
+  </si>
+  <si>
+    <t>299​</t>
+  </si>
+  <si>
+    <t>97.4%​</t>
+  </si>
+  <si>
+    <t>*Event Scheduler' Scenario is complicated as we need to deal with outlook calendars validation. Plan to automate in future​</t>
+  </si>
+  <si>
+    <t>6​</t>
+  </si>
+  <si>
+    <t>214​</t>
+  </si>
+  <si>
+    <t>100.00%​</t>
+  </si>
+  <si>
+    <t>Workday ​</t>
+  </si>
+  <si>
+    <t>288​</t>
+  </si>
+  <si>
+    <t>1​</t>
+  </si>
+  <si>
+    <t>287​</t>
+  </si>
+  <si>
+    <t>1*​</t>
+  </si>
+  <si>
+    <t>236​</t>
+  </si>
+  <si>
+    <t>99.65%​</t>
+  </si>
+  <si>
+    <t>*PowerBI extract and validation must be done manually.​</t>
+  </si>
+  <si>
+    <t>123​</t>
+  </si>
+  <si>
+    <t>167​</t>
+  </si>
+  <si>
+    <t>100%​</t>
+  </si>
+  <si>
+    <t>Client Relations​</t>
+  </si>
+  <si>
+    <t>15​</t>
+  </si>
+  <si>
+    <t>32​</t>
+  </si>
+  <si>
+    <t>31​</t>
+  </si>
+  <si>
+    <t>166​</t>
+  </si>
+  <si>
+    <t>96.8%​</t>
+  </si>
+  <si>
+    <t>362​</t>
+  </si>
+  <si>
+    <t>172​</t>
+  </si>
+  <si>
+    <t>190​</t>
+  </si>
+  <si>
+    <t>47.5%​</t>
+  </si>
+  <si>
+    <t>Production Smoke Test​</t>
+  </si>
+  <si>
+    <t>21​</t>
+  </si>
+  <si>
+    <t>7​</t>
+  </si>
+  <si>
+    <t>Smoke Test Scripts​</t>
+  </si>
+  <si>
+    <t>Incentive Compensation System​</t>
+  </si>
+  <si>
+    <t>648​</t>
+  </si>
+  <si>
+    <t>54​</t>
+  </si>
+  <si>
+    <t>-​</t>
+  </si>
+  <si>
+    <t>HRIS​</t>
+  </si>
+  <si>
+    <t>903​</t>
+  </si>
+  <si>
+    <t>24​</t>
+  </si>
+  <si>
+    <t>Corporate Action​</t>
+  </si>
+  <si>
+    <t>95​</t>
+  </si>
+  <si>
+    <t>We need to start analyzing Automation Scope. ​</t>
+  </si>
+  <si>
+    <t>OneTracker​</t>
+  </si>
+  <si>
+    <t>636​</t>
+  </si>
+  <si>
+    <t>197​</t>
+  </si>
+  <si>
+    <t>374​</t>
+  </si>
+  <si>
+    <t>224​</t>
+  </si>
+  <si>
+    <t>Reviewed/​Future Automation​</t>
+  </si>
+  <si>
+    <t>Reviewed/​Can't Automate​</t>
+  </si>
+  <si>
+    <t>% of Automation​ Coverage​</t>
   </si>
 </sst>
 </file>
@@ -548,7 +967,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +990,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -685,7 +1110,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +1221,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3623,11 +4066,1047 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E694C9-81F8-477F-B5D3-69480FCAFB23}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="13.33203125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7F8F7-86B8-4A6B-8B90-EA90990180F3}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:E1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5016A30-5BAE-49AD-AC7C-30674735E920}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3674,17 +5153,17 @@
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="22">
         <v>0.95589999999999997</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="22">
         <v>0.95589999999999997</v>
       </c>
       <c r="D3" s="22">
         <v>0.95589999999999997</v>
       </c>
       <c r="E3" s="22">
-        <v>0</v>
+        <v>0.95589999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3692,16 +5171,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="33">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0.95450000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
       </c>
       <c r="D4" s="22">
         <v>0.97470000000000001</v>
       </c>
       <c r="E4" s="22">
-        <v>0</v>
+        <v>0.97470000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3709,7 +5188,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C5" s="33">
         <v>0.75</v>
@@ -3718,24 +5197,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
       </c>
       <c r="E6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3743,16 +5222,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C7" s="33">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="22">
         <v>0.99650000000000005</v>
       </c>
       <c r="E7" s="22">
-        <v>0</v>
+        <v>0.99650000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3794,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="33">
         <v>1</v>
@@ -3803,7 +5282,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="E10" s="22">
-        <v>0</v>
+        <v>0.96879999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3845,16 +5324,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
         <v>1</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
       </c>
       <c r="E13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3922,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3987,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="22">
         <v>0</v>
@@ -4007,7 +5486,7 @@
         <v>0.47510000000000002</v>
       </c>
       <c r="E22" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4021,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4069,7 +5548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FE3809-9FE5-461A-9EC6-BF8F1D41B761}">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -11137,11 +12616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63CFBC-1988-4619-A933-41EFE3EDA9DF}">
   <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21762,7 +23241,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22211,448 +23690,783 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7F8F7-86B8-4A6B-8B90-EA90990180F3}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC689D-C904-45B6-8599-A23AA6F16B54}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="20.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.21875" style="43"/>
+    <col min="4" max="4" width="12.21875" style="43" customWidth="1"/>
+    <col min="5" max="10" width="12.21875" style="43"/>
+    <col min="11" max="11" width="28.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:E1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF48D64-C389-479E-B854-0BDFDAC4B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1879155-79B5-4FA0-BAC3-1CE33B8997C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="288">
   <si>
     <t>Project</t>
   </si>
@@ -501,9 +501,6 @@
     <t>QA Projects​</t>
   </si>
   <si>
-    <t>Functional​ (Sharepoint)​</t>
-  </si>
-  <si>
     <t>Test Complete​</t>
   </si>
   <si>
@@ -567,18 +564,9 @@
     <t>Corporate Actions​</t>
   </si>
   <si>
-    <t>Client Relations-QA​</t>
-  </si>
-  <si>
-    <t>Geneva​</t>
-  </si>
-  <si>
     <t>Dr. Doc/Cornerstone​</t>
   </si>
   <si>
-    <t>WD AR/AP Dashboard ​</t>
-  </si>
-  <si>
     <t>Oaktree Public Websites​</t>
   </si>
   <si>
@@ -726,9 +714,6 @@
     <t>Comments​</t>
   </si>
   <si>
-    <t>FXCentral​</t>
-  </si>
-  <si>
     <t>68​</t>
   </si>
   <si>
@@ -783,9 +768,6 @@
     <t>100.00%​</t>
   </si>
   <si>
-    <t>Workday ​</t>
-  </si>
-  <si>
     <t>288​</t>
   </si>
   <si>
@@ -846,9 +828,6 @@
     <t>47.5%​</t>
   </si>
   <si>
-    <t>Production Smoke Test​</t>
-  </si>
-  <si>
     <t>21​</t>
   </si>
   <si>
@@ -858,9 +837,6 @@
     <t>Smoke Test Scripts​</t>
   </si>
   <si>
-    <t>Incentive Compensation System​</t>
-  </si>
-  <si>
     <t>648​</t>
   </si>
   <si>
@@ -879,18 +855,12 @@
     <t>24​</t>
   </si>
   <si>
-    <t>Corporate Action​</t>
-  </si>
-  <si>
     <t>95​</t>
   </si>
   <si>
     <t>We need to start analyzing Automation Scope. ​</t>
   </si>
   <si>
-    <t>OneTracker​</t>
-  </si>
-  <si>
     <t>636​</t>
   </si>
   <si>
@@ -910,6 +880,45 @@
   </si>
   <si>
     <t>% of Automation​ Coverage​</t>
+  </si>
+  <si>
+    <t>Sharepoint</t>
+  </si>
+  <si>
+    <t>FX CENTRAL​</t>
+  </si>
+  <si>
+    <t>TREENA​</t>
+  </si>
+  <si>
+    <t>VEMS​</t>
+  </si>
+  <si>
+    <t>WORKDAY ​</t>
+  </si>
+  <si>
+    <t>BEQOM​</t>
+  </si>
+  <si>
+    <t>OCP TECH REFRESH​</t>
+  </si>
+  <si>
+    <t>CORPORATE ACTION​</t>
+  </si>
+  <si>
+    <t>PRODUCTION SMOKE TEST​</t>
+  </si>
+  <si>
+    <t>ONETRACKER​</t>
+  </si>
+  <si>
+    <t>CLIENT RELATIONS​</t>
+  </si>
+  <si>
+    <t>FORM PF​</t>
+  </si>
+  <si>
+    <t>AR/AP Dashboard ​</t>
   </si>
 </sst>
 </file>
@@ -4070,7 +4079,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4091,244 +4100,244 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="G1" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="J1" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>218</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="I2" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="K2" s="42" t="s">
         <v>226</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="K3" s="42" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K4" s="42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="K6" s="42" t="s">
         <v>243</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>146</v>
@@ -4336,112 +4345,112 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K8" s="42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>262</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>268</v>
@@ -4450,25 +4459,25 @@
         <v>268</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>268</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>269</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K11" s="42" t="s">
         <v>146</v>
@@ -4476,34 +4485,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>146</v>
@@ -4511,34 +4520,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>146</v>
@@ -4546,69 +4555,69 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>146</v>
@@ -4616,34 +4625,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>146</v>
@@ -5105,7 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5016A30-5BAE-49AD-AC7C-30674735E920}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -23241,7 +23250,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23691,10 +23700,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC689D-C904-45B6-8599-A23AA6F16B54}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23718,63 +23727,63 @@
         <v>147</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>155</v>
-      </c>
       <c r="K1" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>146</v>
@@ -23792,39 +23801,39 @@
         <v>146</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L2" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="Q2" s="42" t="s">
         <v>210</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>146</v>
@@ -23839,19 +23848,19 @@
         <v>146</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L3" s="42" t="s">
         <v>146</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O3" s="42" t="s">
         <v>146</v>
@@ -23860,21 +23869,21 @@
         <v>146</v>
       </c>
       <c r="Q3" s="42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>146</v>
@@ -23892,7 +23901,7 @@
         <v>146</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L4" s="42" t="s">
         <v>146</v>
@@ -23910,21 +23919,21 @@
         <v>146</v>
       </c>
       <c r="Q4" s="42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>146</v>
@@ -23939,10 +23948,10 @@
         <v>146</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>146</v>
@@ -23951,7 +23960,7 @@
         <v>146</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O5" s="42" t="s">
         <v>146</v>
@@ -23965,16 +23974,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>146</v>
@@ -23983,7 +23992,7 @@
         <v>146</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>146</v>
@@ -23992,10 +24001,10 @@
         <v>146</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>146</v>
@@ -24015,49 +24024,49 @@
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>146</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>146</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>146</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O7" s="42" t="s">
         <v>146</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>146</v>
@@ -24065,13 +24074,13 @@
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>146</v>
@@ -24083,7 +24092,7 @@
         <v>146</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>146</v>
@@ -24092,7 +24101,7 @@
         <v>146</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>146</v>
@@ -24104,7 +24113,7 @@
         <v>146</v>
       </c>
       <c r="O8" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P8" s="42" t="s">
         <v>146</v>
@@ -24115,10 +24124,10 @@
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>146</v>
@@ -24130,37 +24139,37 @@
         <v>146</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>146</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K9" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="P9" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -24168,7 +24177,7 @@
         <v>168</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>146</v>
@@ -24192,16 +24201,16 @@
         <v>146</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O10" s="42" t="s">
         <v>146</v>
@@ -24215,10 +24224,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>146</v>
@@ -24242,39 +24251,39 @@
         <v>146</v>
       </c>
       <c r="K11" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="Q11" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>146</v>
@@ -24294,16 +24303,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>146</v>
@@ -24323,7 +24332,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>146</v>
@@ -24332,10 +24341,10 @@
         <v>146</v>
       </c>
       <c r="D14" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>157</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>146</v>
@@ -24344,7 +24353,7 @@
         <v>146</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>146</v>
@@ -24352,7 +24361,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>146</v>
@@ -24361,7 +24370,7 @@
         <v>146</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>146</v>
@@ -24376,12 +24385,12 @@
         <v>146</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>146</v>
@@ -24393,7 +24402,7 @@
         <v>146</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>146</v>
@@ -24405,12 +24414,12 @@
         <v>146</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>146</v>
@@ -24419,7 +24428,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>146</v>
@@ -24431,38 +24440,9 @@
         <v>146</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="42" t="s">
         <v>146</v>
       </c>
     </row>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E303DC9-9EE6-4073-AB86-0B548745802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2689A7-BD23-47CE-98B8-F2F0D4B0BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Bug!$A$1:$AR$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cost!$A$1:$AR$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Department!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Department!$A$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Efforts!$A$1:$AR$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Execution!$A$1:$AR$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resource!$A$1:$AR$27</definedName>
@@ -260,64 +260,10 @@
     <t>Dec 22</t>
   </si>
   <si>
-    <t>CECELIA</t>
-  </si>
-  <si>
-    <t>HIMANSHU</t>
-  </si>
-  <si>
-    <t>SAMIP</t>
-  </si>
-  <si>
-    <t>ASHISH &amp; NASHIRA</t>
-  </si>
-  <si>
-    <t>AFSHIN</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>CHARLES</t>
-  </si>
-  <si>
-    <t>ANISHA</t>
-  </si>
-  <si>
-    <t>NARGES</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
     <t>IT Manager</t>
   </si>
   <si>
     <t>QA SPOC</t>
-  </si>
-  <si>
-    <t>NACHI</t>
-  </si>
-  <si>
-    <t>ESWAR</t>
-  </si>
-  <si>
-    <t>MEENAKSHI</t>
-  </si>
-  <si>
-    <t>VIGNESH</t>
-  </si>
-  <si>
-    <t>SARAVANAN</t>
-  </si>
-  <si>
-    <t>AYESHA</t>
-  </si>
-  <si>
-    <t>PRAMOD</t>
   </si>
   <si>
     <t>START DATE</t>
@@ -333,9 +279,6 @@
   </si>
   <si>
     <t>SMA</t>
-  </si>
-  <si>
-    <t>CRISTELA</t>
   </si>
   <si>
     <t>Jan 21</t>
@@ -378,9 +321,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>SANJAY</t>
   </si>
   <si>
     <t>QA Projections 2024</t>
@@ -982,6 +922,66 @@
   <si>
     <t>Bugs identified PROD</t>
   </si>
+  <si>
+    <t>Ayesha Shaik</t>
+  </si>
+  <si>
+    <t>Eswara Rao Kanakala</t>
+  </si>
+  <si>
+    <t>Meenakshi Kasi</t>
+  </si>
+  <si>
+    <t>Nachiketa Amarnathprasad</t>
+  </si>
+  <si>
+    <t>Pramod Rayate</t>
+  </si>
+  <si>
+    <t>Saravanan Munikrishnan</t>
+  </si>
+  <si>
+    <t>Vignesh Dhakshnamoorthy</t>
+  </si>
+  <si>
+    <t>Afshin Davari</t>
+  </si>
+  <si>
+    <t>Anisha Bhasin</t>
+  </si>
+  <si>
+    <t>Nashira Thomas</t>
+  </si>
+  <si>
+    <t>Cecilia Anyanwu</t>
+  </si>
+  <si>
+    <t>Charles Kiedman</t>
+  </si>
+  <si>
+    <t>Cristela Hernandez</t>
+  </si>
+  <si>
+    <t>James Farea</t>
+  </si>
+  <si>
+    <t>Julian Acebo</t>
+  </si>
+  <si>
+    <t>Narges Rafigh</t>
+  </si>
+  <si>
+    <t>Samip Bararia</t>
+  </si>
+  <si>
+    <t>Sanjay Khanna</t>
+  </si>
+  <si>
+    <t>Ali El-Annan</t>
+  </si>
+  <si>
+    <t>Himanshu Pathak</t>
+  </si>
 </sst>
 </file>
 
@@ -1180,7 +1180,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1303,6 +1303,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1643,40 +1652,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>55</v>
@@ -2591,7 +2600,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -4047,7 +4056,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -4107,7 +4116,7 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4175,16 +4184,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB557-971D-4C9C-8C0C-E39F10DAB084}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4198,14 +4207,14 @@
       <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>79</v>
+      <c r="D1" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4213,16 +4222,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>81</v>
+      <c r="D2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F2" s="26">
         <v>44046</v>
@@ -4233,16 +4242,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
+      <c r="D3" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="F3" s="26">
         <v>44298</v>
@@ -4253,16 +4262,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>86</v>
+      <c r="D4" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>292</v>
       </c>
       <c r="F4" s="26">
         <v>44298</v>
@@ -4273,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>83</v>
+      <c r="D5" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="F5" s="26">
         <v>44287</v>
@@ -4293,16 +4302,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
+      <c r="D6" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>292</v>
       </c>
       <c r="F6" s="26">
         <v>44386</v>
@@ -4310,19 +4319,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
+      <c r="D7" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F7" s="26">
         <v>44430</v>
@@ -4333,16 +4342,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
+      <c r="D8" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="F8" s="26">
         <v>44599</v>
@@ -4353,16 +4362,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>83</v>
+      <c r="D9" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="F9" s="26">
         <v>44613</v>
@@ -4373,16 +4382,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
+      <c r="D10" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="F10" s="26">
         <v>44795</v>
@@ -4393,16 +4402,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>81</v>
+      <c r="D11" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F11" s="26">
         <v>44813</v>
@@ -4413,16 +4422,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>80</v>
+      <c r="D12" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="F12" s="26">
         <v>44805</v>
@@ -4433,16 +4442,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>82</v>
+      <c r="D13" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F13" s="26">
         <v>44825</v>
@@ -4453,16 +4462,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
+      <c r="D14" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="F14" s="26">
         <v>44927</v>
@@ -4473,16 +4482,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
+      <c r="D15" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="F15" s="26">
         <v>44958</v>
@@ -4493,16 +4502,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
+      <c r="D16" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F16" s="26">
         <v>45034</v>
@@ -4513,16 +4522,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
+      <c r="D17" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F17" s="26">
         <v>45072</v>
@@ -4533,16 +4542,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>82</v>
+      <c r="D18" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F18" s="26">
         <v>45083</v>
@@ -4553,16 +4562,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
+      <c r="D19" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="F19" s="26">
         <v>45085</v>
@@ -4573,16 +4582,16 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>80</v>
+      <c r="D20" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="F20" s="26">
         <v>45139</v>
@@ -4593,16 +4602,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>82</v>
+      <c r="D21" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F21" s="26">
         <v>45205</v>
@@ -4613,16 +4622,16 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>82</v>
+      <c r="D22" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F22" s="26">
         <v>45251</v>
@@ -4633,16 +4642,16 @@
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>81</v>
+      <c r="D23" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="F23" s="26">
         <v>45316</v>
@@ -4653,16 +4662,16 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
+      <c r="D24" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F24" s="26">
         <v>45292</v>
@@ -4670,19 +4679,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>270</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="F25" s="26">
         <v>45327</v>
@@ -4690,19 +4699,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
+      <c r="D26" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="F26" s="26">
         <v>45323</v>
@@ -4742,726 +4751,726 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>166</v>
-      </c>
       <c r="M1" s="35" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I3" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>173</v>
-      </c>
       <c r="L3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5495,387 +5504,387 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>234</v>
-      </c>
       <c r="K6" s="36" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5883,174 +5892,174 @@
         <v>2</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
@@ -6080,7 +6089,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B1" s="31">
         <v>45292</v>
@@ -6121,48 +6130,48 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B3" s="30">
         <v>14.65</v>
@@ -6203,7 +6212,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B4" s="30">
         <v>22</v>
@@ -6244,51 +6253,51 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6298,7 +6307,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B13" s="33">
         <f>((B12-5.25)*33+(5.25*30))/B12</f>
@@ -6352,40 +6361,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>55</v>
@@ -7300,7 +7309,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8822,7 +8831,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8882,7 +8891,7 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -9122,7 +9131,7 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B32" s="4">
         <f>B26</f>
@@ -10564,40 +10573,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>55</v>
@@ -11504,7 +11513,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -12932,7 +12941,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -12992,7 +13001,7 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -13433,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>55</v>
@@ -14381,7 +14390,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -15823,7 +15832,7 @@
     </row>
     <row r="26" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -15883,7 +15892,7 @@
     </row>
     <row r="27" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -15967,40 +15976,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>55</v>
@@ -16915,7 +16924,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18359,7 +18368,7 @@
     </row>
     <row r="26" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -18419,7 +18428,7 @@
     </row>
     <row r="27" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -18673,52 +18682,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -19011,7 +19020,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -19036,7 +19045,7 @@
         <v>2021</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
@@ -20162,7 +20171,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9">
         <v>101</v>
@@ -20187,7 +20196,7 @@
         <v>2022</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="1"/>
@@ -21363,7 +21372,7 @@
         <v>2023</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -21378,7 +21387,7 @@
         <v>2023</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
@@ -22644,7 +22653,7 @@
         <v>2024</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -22659,7 +22668,7 @@
         <v>2024</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="10"/>
@@ -23630,7 +23639,7 @@
         <v>2024</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -23655,7 +23664,7 @@
         <v>2024</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="L94" s="1">
         <f t="shared" si="10"/>
@@ -23687,7 +23696,7 @@
         <v>2024</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C95" s="9">
         <v>50</v>
@@ -23712,7 +23721,7 @@
         <v>2024</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" si="10"/>
@@ -23748,7 +23757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154354B0-D4A8-46B4-B585-555E27A32516}">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
@@ -23781,64 +23790,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="U1" s="12" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -24201,7 +24210,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -24232,7 +24241,7 @@
         <v>2021</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
@@ -24280,10 +24289,10 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J8" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24341,10 +24350,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J9" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24402,10 +24411,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J10" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24463,10 +24472,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J11" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24524,10 +24533,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J12" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24585,10 +24594,10 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J13" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24646,10 +24655,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J14" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24707,10 +24716,10 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J15" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24768,10 +24777,10 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J16" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24829,10 +24838,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J17" s="22" t="str">
         <f t="shared" si="1"/>
@@ -24961,10 +24970,10 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J19" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25022,10 +25031,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J20" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25083,10 +25092,10 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J21" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25144,10 +25153,10 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J22" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25205,10 +25214,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J23" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25266,10 +25275,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J24" s="22" t="str">
         <f t="shared" si="1"/>
@@ -25674,7 +25683,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9">
         <v>101</v>
@@ -25705,7 +25714,7 @@
         <v>2022</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="2"/>
@@ -26179,10 +26188,10 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J37" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26240,10 +26249,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J38" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26301,10 +26310,10 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J39" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26362,10 +26371,10 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J40" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26423,10 +26432,10 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J41" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26484,10 +26493,10 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J42" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26545,10 +26554,10 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J43" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26606,10 +26615,10 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J44" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26667,10 +26676,10 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J45" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26728,10 +26737,10 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J46" s="22" t="str">
         <f t="shared" si="1"/>
@@ -26789,10 +26798,10 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J47" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27197,7 +27206,7 @@
         <v>2023</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -27205,10 +27214,10 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J53" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27218,7 +27227,7 @@
         <v>2023</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="2"/>
@@ -28331,10 +28340,10 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J69" s="22" t="str">
         <f t="shared" si="10"/>
@@ -28392,10 +28401,10 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J70" s="22" t="str">
         <f t="shared" si="10"/>
@@ -28800,7 +28809,7 @@
         <v>2024</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -28808,10 +28817,10 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J76" s="22" t="str">
         <f t="shared" si="10"/>
@@ -28821,7 +28830,7 @@
         <v>2024</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="11"/>
@@ -29082,10 +29091,10 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J80" s="22" t="str">
         <f t="shared" si="10"/>
@@ -29569,10 +29578,10 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J87" s="22" t="str">
         <f t="shared" si="10"/>
@@ -29701,10 +29710,10 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J89" s="22" t="str">
         <f t="shared" si="10"/>
@@ -30038,7 +30047,7 @@
         <v>2024</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -30069,7 +30078,7 @@
         <v>2024</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="N94" s="1">
         <f t="shared" si="11"/>
@@ -30109,7 +30118,7 @@
         <v>2024</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C95" s="9">
         <v>50</v>
@@ -30140,7 +30149,7 @@
         <v>2024</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="N95" s="1">
         <f t="shared" si="11"/>
@@ -30200,16 +30209,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -30299,7 +30308,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>46</v>
@@ -30308,10 +30317,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -30319,7 +30328,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -30336,7 +30345,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
@@ -30353,7 +30362,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -30370,7 +30379,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
@@ -30379,7 +30388,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -30387,7 +30396,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
@@ -30404,7 +30413,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -30421,10 +30430,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -30438,10 +30447,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>46</v>
@@ -30455,10 +30464,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>46</v>
@@ -30472,10 +30481,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
@@ -30492,13 +30501,13 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -30506,10 +30515,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>46</v>
@@ -30523,16 +30532,16 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -30540,10 +30549,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>46</v>
@@ -30557,10 +30566,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>46</v>
@@ -30574,13 +30583,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>46</v>
@@ -30591,13 +30600,13 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>46</v>
@@ -30605,16 +30614,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>46</v>
@@ -30622,16 +30631,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>46</v>
@@ -30664,16 +30673,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -30780,7 +30789,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -30789,10 +30798,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -30800,7 +30809,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C9" s="28">
         <v>0</v>
@@ -30817,7 +30826,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C10" s="28">
         <v>1</v>
@@ -30834,7 +30843,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
@@ -30851,7 +30860,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C12" s="28">
         <v>0</v>
@@ -30860,7 +30869,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -30868,7 +30877,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -30879,7 +30888,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -30896,10 +30905,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D15" s="22">
         <v>0</v>
@@ -30913,10 +30922,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -30926,10 +30935,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
@@ -30943,10 +30952,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D18" s="22">
         <v>0</v>
@@ -30963,13 +30972,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D19" s="22">
         <v>0</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -30977,10 +30986,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D20" s="22">
         <v>0</v>
@@ -30994,16 +31003,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D21" s="22">
         <v>1</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -31011,10 +31020,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D22" s="22">
         <v>0.47510000000000002</v>
@@ -31028,10 +31037,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D23" s="22">
         <v>1</v>
@@ -31045,13 +31054,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E24" s="22">
         <v>0</v>
@@ -31062,43 +31071,43 @@
         <v>47</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E27" s="22">
         <v>0</v>

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2689A7-BD23-47CE-98B8-F2F0D4B0BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C502FBC-9EAE-472E-AF59-DC85258DE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -4184,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB557-971D-4C9C-8C0C-E39F10DAB084}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -23757,9 +23757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154354B0-D4A8-46B4-B585-555E27A32516}">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25615,13 +25615,13 @@
         <v>16</v>
       </c>
       <c r="C29" s="9">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="D29" s="9">
         <v>1469</v>
       </c>
       <c r="E29" s="9">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="F29" s="9">
         <v>8046</v>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="3"/>
@@ -25655,7 +25655,7 @@
       </c>
       <c r="P29" s="1">
         <f t="shared" si="4"/>
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="5"/>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="U29" s="22">
         <f t="shared" si="9"/>
-        <v>0.98816568047337283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -27138,13 +27138,13 @@
         <v>16</v>
       </c>
       <c r="C52" s="9">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="D52" s="9">
         <v>754</v>
       </c>
       <c r="E52" s="9">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F52" s="9">
         <v>1272</v>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="J52" s="22">
         <f t="shared" si="1"/>
-        <v>0.41142857142857142</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1">
         <v>2023</v>
@@ -27170,7 +27170,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" si="2"/>
-        <v>513</v>
+        <v>292</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="3"/>
@@ -27178,7 +27178,7 @@
       </c>
       <c r="P52" s="1">
         <f t="shared" si="4"/>
-        <v>406</v>
+        <v>292</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="5"/>
@@ -27198,7 +27198,7 @@
       </c>
       <c r="U52" s="22">
         <f t="shared" si="9"/>
-        <v>0.79142300194931769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -28747,7 +28747,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F75" s="9">
         <v>285</v>
@@ -28763,7 +28763,7 @@
       </c>
       <c r="J75" s="22">
         <f t="shared" si="10"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
         <v>2024</v>
@@ -28773,7 +28773,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" si="11"/>
-        <v>561</v>
+        <v>340</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" si="12"/>
@@ -28781,7 +28781,7 @@
       </c>
       <c r="P75" s="1">
         <f t="shared" si="13"/>
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="14"/>
@@ -28801,7 +28801,7 @@
       </c>
       <c r="U75" s="22">
         <f t="shared" si="18"/>
-        <v>0.78787878787878785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">

--- a/dataSources/monthData/dashSummary.xlsx
+++ b/dataSources/monthData/dashSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\monthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C502FBC-9EAE-472E-AF59-DC85258DE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1AFB08-CB20-4967-9FCF-54452EA5700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{0F5B5854-695B-4A75-A2C0-C1DAEEB6754A}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="309">
   <si>
     <t>Project</t>
   </si>
@@ -982,6 +982,9 @@
   <si>
     <t>Himanshu Pathak</t>
   </si>
+  <si>
+    <t>Jubilee Olivas</t>
+  </si>
 </sst>
 </file>
 
@@ -4185,7 +4188,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,7 +4651,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>289</v>
@@ -23759,7 +23762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26041,13 +26044,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
       </c>
       <c r="E35" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -26063,7 +26066,7 @@
       </c>
       <c r="J35" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>2022</v>
@@ -26073,7 +26076,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="3"/>
@@ -26081,7 +26084,7 @@
       </c>
       <c r="P35" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="5"/>
@@ -26101,7 +26104,7 @@
       </c>
       <c r="U35" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -27586,7 +27589,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" si="3"/>
@@ -27594,7 +27597,7 @@
       </c>
       <c r="P58" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="5"/>
@@ -27614,7 +27617,7 @@
       </c>
       <c r="U58" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
@@ -29179,7 +29182,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O81" s="1">
         <f t="shared" si="12"/>
@@ -29187,7 +29190,7 @@
       </c>
       <c r="P81" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q81" s="1">
         <f t="shared" si="14"/>
@@ -29207,7 +29210,7 @@
       </c>
       <c r="U81" s="22">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
